--- a/Input data/Task_list.xlsx
+++ b/Input data/Task_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B07358-3B5E-704E-A6FF-90B0D2EA52F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A6D38-0698-C344-9B35-0F1D20903DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="500" windowWidth="13960" windowHeight="17500" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
+    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="17500" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasklist_routing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="14">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,13 +80,22 @@
     <t>C04_T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Start node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End node</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -149,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +182,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,18 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="3" max="4" width="21.1640625" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,22 +530,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -535,23 +561,29 @@
       <c r="C2" s="4">
         <v>225</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="8">
+        <v>57</v>
       </c>
       <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="8">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -561,23 +593,29 @@
       <c r="C3" s="4">
         <v>225</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
+      <c r="D3" s="8">
+        <v>57</v>
       </c>
       <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" s="8">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -587,23 +625,29 @@
       <c r="C4" s="4">
         <v>225</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
+      <c r="D4" s="8">
+        <v>57</v>
       </c>
       <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>235</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="8">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -613,21 +657,27 @@
       <c r="C5" s="4">
         <v>225</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
+      <c r="D5" s="8">
+        <v>57</v>
       </c>
       <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>235</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="8">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -637,21 +687,27 @@
       <c r="C6" s="4">
         <v>225</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
+      <c r="D6" s="8">
+        <v>57</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>400</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" s="8">
+        <v>134</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -661,20 +717,26 @@
       <c r="C7" s="4">
         <v>225</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
+      <c r="D7" s="8">
+        <v>57</v>
       </c>
       <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
         <v>400</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="8">
+        <v>134</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -684,21 +746,27 @@
       <c r="C8" s="4">
         <v>225</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
+      <c r="D8" s="8">
+        <v>57</v>
       </c>
       <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="8">
+        <v>134</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -708,21 +776,27 @@
       <c r="C9" s="4">
         <v>225</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
+      <c r="D9" s="8">
+        <v>57</v>
       </c>
       <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>400</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="8">
+        <v>134</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -732,21 +806,27 @@
       <c r="C10" s="4">
         <v>225</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>400</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" s="8">
+        <v>157</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -756,21 +836,27 @@
       <c r="C11" s="4">
         <v>225</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>400</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" s="8">
+        <v>157</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -780,21 +866,27 @@
       <c r="C12" s="4">
         <v>225</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>400</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="G12" s="8">
+        <v>157</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -804,20 +896,26 @@
       <c r="C13" s="4">
         <v>225</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>400</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" s="8">
+        <v>157</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -827,20 +925,26 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14" s="9">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -850,20 +954,26 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="9">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -873,20 +983,26 @@
       <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
+      <c r="D16" s="8">
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+      <c r="G16" s="8">
+        <v>118</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -896,20 +1012,26 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
+      <c r="D17" s="8">
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -919,20 +1041,26 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
+      <c r="D18" s="8">
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>50</v>
+      </c>
+      <c r="G18" s="8">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -942,20 +1070,26 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
+      <c r="D19" s="8">
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="8">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -965,20 +1099,26 @@
       <c r="C20" s="6">
         <v>225</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
+        <v>57</v>
+      </c>
+      <c r="E20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>225</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="6">
+        <v>225</v>
+      </c>
+      <c r="G20" s="10">
+        <v>148</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -988,20 +1128,26 @@
       <c r="C21" s="6">
         <v>225</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="6">
-        <v>225</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="6">
+        <v>225</v>
+      </c>
+      <c r="G21" s="10">
+        <v>148</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1011,20 +1157,26 @@
       <c r="C22" s="6">
         <v>225</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
+      <c r="D22" s="8">
+        <v>57</v>
       </c>
       <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <v>160</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="10">
+        <v>122</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1034,20 +1186,26 @@
       <c r="C23" s="6">
         <v>225</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
+      <c r="D23" s="8">
+        <v>57</v>
       </c>
       <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
         <v>160</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="10">
+        <v>122</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1057,20 +1215,26 @@
       <c r="C24" s="6">
         <v>225</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>160</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="10">
+        <v>145</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1080,20 +1244,26 @@
       <c r="C25" s="6">
         <v>225</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <v>160</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="10">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1103,20 +1273,26 @@
       <c r="C26" s="6">
         <v>225</v>
       </c>
-      <c r="D26" s="6">
-        <v>0</v>
+      <c r="D26" s="8">
+        <v>57</v>
       </c>
       <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
         <v>32</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="10">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1126,20 +1302,26 @@
       <c r="C27" s="6">
         <v>225</v>
       </c>
-      <c r="D27" s="6">
-        <v>0</v>
+      <c r="D27" s="8">
+        <v>57</v>
       </c>
       <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
         <v>283</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="10">
+        <v>72</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>26</v>
@@ -1150,20 +1332,26 @@
       <c r="C28" s="6">
         <v>0</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>0</v>
       </c>
       <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="10">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <f t="shared" ref="A29:A92" si="0">A28+1</f>
         <v>27</v>
@@ -1174,20 +1362,26 @@
       <c r="C29" s="6">
         <v>0</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>0</v>
       </c>
       <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="10">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1198,20 +1392,26 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
         <v>303</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="10">
+        <v>77</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1222,20 +1422,26 @@
       <c r="C31" s="6">
         <v>0</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="8">
         <v>0</v>
       </c>
       <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
         <v>303</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="10">
+        <v>77</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1246,20 +1452,26 @@
       <c r="C32" s="6">
         <v>0</v>
       </c>
-      <c r="D32" s="6">
-        <v>1</v>
+      <c r="D32" s="8">
+        <v>0</v>
       </c>
       <c r="E32" s="6">
-        <v>50</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>50</v>
+      </c>
+      <c r="G32" s="8">
+        <v>118</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1270,20 +1482,26 @@
       <c r="C33" s="6">
         <v>0</v>
       </c>
-      <c r="D33" s="6">
-        <v>1</v>
+      <c r="D33" s="8">
+        <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>50</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>50</v>
+      </c>
+      <c r="G33" s="8">
+        <v>118</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <f>A33+1</f>
         <v>32</v>
@@ -1294,20 +1512,26 @@
       <c r="C34" s="6">
         <v>0</v>
       </c>
-      <c r="D34" s="6">
-        <v>1</v>
+      <c r="D34" s="8">
+        <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>50</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>50</v>
+      </c>
+      <c r="G34" s="8">
+        <v>118</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1318,20 +1542,26 @@
       <c r="C35" s="6">
         <v>0</v>
       </c>
-      <c r="D35" s="6">
-        <v>1</v>
+      <c r="D35" s="8">
+        <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>50</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>50</v>
+      </c>
+      <c r="G35" s="8">
+        <v>118</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1342,20 +1572,26 @@
       <c r="C36" s="6">
         <v>0</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
-        <v>50</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="F36" s="6">
+        <v>50</v>
+      </c>
+      <c r="G36" s="10">
+        <v>140</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1366,20 +1602,26 @@
       <c r="C37" s="6">
         <v>0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
         <v>2</v>
       </c>
-      <c r="E37" s="6">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="F37" s="6">
+        <v>50</v>
+      </c>
+      <c r="G37" s="10">
+        <v>140</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1390,20 +1632,26 @@
       <c r="C38" s="6">
         <v>0</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>2</v>
       </c>
-      <c r="E38" s="6">
-        <v>50</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="F38" s="6">
+        <v>50</v>
+      </c>
+      <c r="G38" s="10">
+        <v>140</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1414,20 +1662,26 @@
       <c r="C39" s="6">
         <v>0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
         <v>2</v>
       </c>
-      <c r="E39" s="6">
-        <v>50</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="F39" s="6">
+        <v>50</v>
+      </c>
+      <c r="G39" s="10">
+        <v>140</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1438,20 +1692,26 @@
       <c r="C40" s="4">
         <v>225</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
+      <c r="D40" s="8">
+        <v>57</v>
       </c>
       <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
         <v>80</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="8">
+        <v>20</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1462,20 +1722,26 @@
       <c r="C41" s="4">
         <v>225</v>
       </c>
-      <c r="D41" s="4">
-        <v>0</v>
+      <c r="D41" s="8">
+        <v>57</v>
       </c>
       <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
         <v>80</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="8">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1486,20 +1752,26 @@
       <c r="C42" s="4">
         <v>225</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
+      <c r="D42" s="8">
+        <v>57</v>
       </c>
       <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <v>235</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="8">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1510,20 +1782,26 @@
       <c r="C43" s="4">
         <v>225</v>
       </c>
-      <c r="D43" s="4">
-        <v>0</v>
+      <c r="D43" s="8">
+        <v>57</v>
       </c>
       <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
         <v>235</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="8">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1534,20 +1812,26 @@
       <c r="C44" s="4">
         <v>225</v>
       </c>
-      <c r="D44" s="4">
-        <v>1</v>
+      <c r="D44" s="8">
+        <v>57</v>
       </c>
       <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
         <v>400</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="G44" s="8">
+        <v>134</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1558,20 +1842,26 @@
       <c r="C45" s="4">
         <v>225</v>
       </c>
-      <c r="D45" s="4">
-        <v>1</v>
+      <c r="D45" s="8">
+        <v>57</v>
       </c>
       <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
         <v>400</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="G45" s="8">
+        <v>134</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1582,20 +1872,26 @@
       <c r="C46" s="4">
         <v>225</v>
       </c>
-      <c r="D46" s="4">
-        <v>1</v>
+      <c r="D46" s="8">
+        <v>57</v>
       </c>
       <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
         <v>400</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="G46" s="8">
+        <v>134</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1606,20 +1902,26 @@
       <c r="C47" s="4">
         <v>225</v>
       </c>
-      <c r="D47" s="4">
-        <v>1</v>
+      <c r="D47" s="8">
+        <v>57</v>
       </c>
       <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
         <v>400</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47" s="8">
+        <v>134</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1630,20 +1932,26 @@
       <c r="C48" s="4">
         <v>225</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="8">
+        <v>57</v>
+      </c>
+      <c r="E48" s="4">
         <v>2</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>400</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48" s="8">
+        <v>157</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1654,20 +1962,26 @@
       <c r="C49" s="4">
         <v>225</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="8">
+        <v>57</v>
+      </c>
+      <c r="E49" s="4">
         <v>2</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>400</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49" s="8">
+        <v>157</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1678,20 +1992,26 @@
       <c r="C50" s="4">
         <v>225</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="8">
+        <v>57</v>
+      </c>
+      <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>400</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50" s="8">
+        <v>157</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1702,20 +2022,26 @@
       <c r="C51" s="4">
         <v>225</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="8">
+        <v>57</v>
+      </c>
+      <c r="E51" s="4">
         <v>2</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>400</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="G51" s="8">
+        <v>157</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1726,20 +2052,26 @@
       <c r="C52" s="5">
         <v>10</v>
       </c>
-      <c r="D52" s="5">
-        <v>0</v>
+      <c r="D52" s="8">
+        <v>4</v>
       </c>
       <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
         <v>56</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="9">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="4">
+      <c r="I52" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1750,20 +2082,26 @@
       <c r="C53" s="5">
         <v>10</v>
       </c>
-      <c r="D53" s="5">
-        <v>0</v>
+      <c r="D53" s="8">
+        <v>4</v>
       </c>
       <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
         <v>235</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="9">
+        <v>60</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="4">
+      <c r="I53" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1774,20 +2112,26 @@
       <c r="C54" s="5">
         <v>50</v>
       </c>
-      <c r="D54" s="5">
-        <v>1</v>
+      <c r="D54" s="8">
+        <v>118</v>
       </c>
       <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>280</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="9">
+        <v>128</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="4">
+      <c r="I54" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1798,20 +2142,26 @@
       <c r="C55" s="5">
         <v>50</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
+      <c r="D55" s="8">
+        <v>118</v>
       </c>
       <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
         <v>280</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="9">
+        <v>128</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="4">
+      <c r="I55" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1822,20 +2172,26 @@
       <c r="C56" s="5">
         <v>50</v>
       </c>
-      <c r="D56" s="5">
-        <v>1</v>
+      <c r="D56" s="8">
+        <v>118</v>
       </c>
       <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
         <v>280</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="9">
+        <v>128</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="4">
+      <c r="I56" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>55</v>
@@ -1846,20 +2202,26 @@
       <c r="C57" s="5">
         <v>50</v>
       </c>
-      <c r="D57" s="5">
-        <v>1</v>
+      <c r="D57" s="8">
+        <v>118</v>
       </c>
       <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
         <v>280</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="9">
+        <v>128</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="4">
+      <c r="I57" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1870,20 +2232,26 @@
       <c r="C58" s="5">
         <v>0</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="8">
         <v>0</v>
       </c>
       <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
         <v>10</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="G58" s="9">
+        <v>4</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1894,20 +2262,26 @@
       <c r="C59" s="5">
         <v>0</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="8">
         <v>0</v>
       </c>
       <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
         <v>10</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="G59" s="9">
+        <v>4</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1918,20 +2292,26 @@
       <c r="C60" s="5">
         <v>0</v>
       </c>
-      <c r="D60" s="5">
-        <v>1</v>
+      <c r="D60" s="8">
+        <v>0</v>
       </c>
       <c r="E60" s="5">
-        <v>50</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
+        <v>50</v>
+      </c>
+      <c r="G60" s="8">
+        <v>118</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1942,20 +2322,26 @@
       <c r="C61" s="5">
         <v>0</v>
       </c>
-      <c r="D61" s="5">
-        <v>1</v>
+      <c r="D61" s="8">
+        <v>0</v>
       </c>
       <c r="E61" s="5">
-        <v>50</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>50</v>
+      </c>
+      <c r="G61" s="8">
+        <v>118</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1966,20 +2352,26 @@
       <c r="C62" s="5">
         <v>0</v>
       </c>
-      <c r="D62" s="5">
-        <v>1</v>
+      <c r="D62" s="8">
+        <v>0</v>
       </c>
       <c r="E62" s="5">
-        <v>50</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>50</v>
+      </c>
+      <c r="G62" s="8">
+        <v>118</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>61</v>
@@ -1990,20 +2382,26 @@
       <c r="C63" s="5">
         <v>0</v>
       </c>
-      <c r="D63" s="5">
-        <v>1</v>
+      <c r="D63" s="8">
+        <v>0</v>
       </c>
       <c r="E63" s="5">
-        <v>50</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>50</v>
+      </c>
+      <c r="G63" s="8">
+        <v>118</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2014,20 +2412,26 @@
       <c r="C64" s="6">
         <v>225</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="8">
+        <v>57</v>
+      </c>
+      <c r="E64" s="6">
         <v>2</v>
       </c>
-      <c r="E64" s="6">
-        <v>225</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="F64" s="6">
+        <v>225</v>
+      </c>
+      <c r="G64" s="10">
+        <v>148</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2038,20 +2442,26 @@
       <c r="C65" s="6">
         <v>225</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="8">
+        <v>57</v>
+      </c>
+      <c r="E65" s="6">
         <v>2</v>
       </c>
-      <c r="E65" s="6">
-        <v>225</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="F65" s="6">
+        <v>225</v>
+      </c>
+      <c r="G65" s="10">
+        <v>148</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2062,20 +2472,26 @@
       <c r="C66" s="6">
         <v>225</v>
       </c>
-      <c r="D66" s="6">
-        <v>0</v>
+      <c r="D66" s="8">
+        <v>57</v>
       </c>
       <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
         <v>283</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="G66" s="10">
+        <v>72</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2086,20 +2502,26 @@
       <c r="C67" s="6">
         <v>0</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="8">
         <v>0</v>
       </c>
       <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
         <v>10</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="G67" s="10">
+        <v>4</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2110,20 +2532,26 @@
       <c r="C68" s="6">
         <v>0</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="8">
         <v>0</v>
       </c>
       <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
         <v>10</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="G68" s="10">
+        <v>4</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2134,20 +2562,26 @@
       <c r="C69" s="6">
         <v>0</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="8">
         <v>0</v>
       </c>
       <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
         <v>303</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="G69" s="10">
+        <v>77</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2158,20 +2592,26 @@
       <c r="C70" s="6">
         <v>0</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="8">
         <v>0</v>
       </c>
       <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
         <v>303</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="G70" s="10">
+        <v>77</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2182,20 +2622,26 @@
       <c r="C71" s="6">
         <v>0</v>
       </c>
-      <c r="D71" s="6">
-        <v>1</v>
+      <c r="D71" s="8">
+        <v>0</v>
       </c>
       <c r="E71" s="6">
-        <v>50</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>50</v>
+      </c>
+      <c r="G71" s="8">
+        <v>118</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2206,20 +2652,26 @@
       <c r="C72" s="6">
         <v>0</v>
       </c>
-      <c r="D72" s="6">
-        <v>1</v>
+      <c r="D72" s="8">
+        <v>0</v>
       </c>
       <c r="E72" s="6">
-        <v>50</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>50</v>
+      </c>
+      <c r="G72" s="8">
+        <v>118</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2230,20 +2682,26 @@
       <c r="C73" s="6">
         <v>0</v>
       </c>
-      <c r="D73" s="6">
-        <v>1</v>
+      <c r="D73" s="8">
+        <v>0</v>
       </c>
       <c r="E73" s="6">
-        <v>50</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>50</v>
+      </c>
+      <c r="G73" s="8">
+        <v>118</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2254,20 +2712,26 @@
       <c r="C74" s="6">
         <v>0</v>
       </c>
-      <c r="D74" s="6">
-        <v>1</v>
+      <c r="D74" s="8">
+        <v>0</v>
       </c>
       <c r="E74" s="6">
-        <v>50</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>50</v>
+      </c>
+      <c r="G74" s="8">
+        <v>118</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2278,20 +2742,26 @@
       <c r="C75" s="6">
         <v>0</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
         <v>2</v>
       </c>
-      <c r="E75" s="6">
-        <v>50</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="F75" s="6">
+        <v>50</v>
+      </c>
+      <c r="G75" s="10">
+        <v>140</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2302,20 +2772,26 @@
       <c r="C76" s="6">
         <v>0</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="8">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
         <v>2</v>
       </c>
-      <c r="E76" s="6">
-        <v>50</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="F76" s="6">
+        <v>50</v>
+      </c>
+      <c r="G76" s="10">
+        <v>140</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2326,20 +2802,26 @@
       <c r="C77" s="6">
         <v>0</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
         <v>2</v>
       </c>
-      <c r="E77" s="6">
-        <v>50</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="F77" s="6">
+        <v>50</v>
+      </c>
+      <c r="G77" s="10">
+        <v>140</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2350,20 +2832,26 @@
       <c r="C78" s="6">
         <v>0</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
         <v>2</v>
       </c>
-      <c r="E78" s="6">
-        <v>50</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="F78" s="6">
+        <v>50</v>
+      </c>
+      <c r="G78" s="10">
+        <v>140</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -2374,20 +2862,26 @@
       <c r="C79" s="6">
         <v>0</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
         <v>2</v>
       </c>
-      <c r="E79" s="6">
-        <v>50</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="F79" s="6">
+        <v>50</v>
+      </c>
+      <c r="G79" s="10">
+        <v>140</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2398,20 +2892,26 @@
       <c r="C80" s="6">
         <v>0</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
         <v>2</v>
       </c>
-      <c r="E80" s="6">
-        <v>50</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="F80" s="6">
+        <v>50</v>
+      </c>
+      <c r="G80" s="10">
+        <v>140</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <f>A80+1</f>
         <v>79</v>
@@ -2422,20 +2922,26 @@
       <c r="C81" s="4">
         <v>225</v>
       </c>
-      <c r="D81" s="4">
-        <v>0</v>
+      <c r="D81" s="8">
+        <v>57</v>
       </c>
       <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
         <v>80</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="8">
+        <v>20</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2446,20 +2952,26 @@
       <c r="C82" s="4">
         <v>225</v>
       </c>
-      <c r="D82" s="4">
-        <v>0</v>
+      <c r="D82" s="8">
+        <v>57</v>
       </c>
       <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
         <v>80</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="G82" s="8">
+        <v>20</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -2470,20 +2982,26 @@
       <c r="C83" s="4">
         <v>225</v>
       </c>
-      <c r="D83" s="4">
-        <v>0</v>
+      <c r="D83" s="8">
+        <v>57</v>
       </c>
       <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
         <v>235</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="G83" s="8">
+        <v>60</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -2494,20 +3012,26 @@
       <c r="C84" s="4">
         <v>225</v>
       </c>
-      <c r="D84" s="4">
-        <v>0</v>
+      <c r="D84" s="8">
+        <v>57</v>
       </c>
       <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
         <v>235</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="G84" s="8">
+        <v>60</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -2518,20 +3042,26 @@
       <c r="C85" s="4">
         <v>225</v>
       </c>
-      <c r="D85" s="4">
-        <v>1</v>
+      <c r="D85" s="8">
+        <v>57</v>
       </c>
       <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
         <v>400</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="8">
+        <v>134</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -2542,20 +3072,26 @@
       <c r="C86" s="4">
         <v>225</v>
       </c>
-      <c r="D86" s="4">
-        <v>1</v>
+      <c r="D86" s="8">
+        <v>57</v>
       </c>
       <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
         <v>400</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="8">
+        <v>134</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <f>A86+1</f>
         <v>85</v>
@@ -2566,20 +3102,26 @@
       <c r="C87" s="4">
         <v>225</v>
       </c>
-      <c r="D87" s="4">
-        <v>1</v>
+      <c r="D87" s="8">
+        <v>57</v>
       </c>
       <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
         <v>400</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" s="8">
+        <v>134</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -2590,20 +3132,26 @@
       <c r="C88" s="4">
         <v>225</v>
       </c>
-      <c r="D88" s="4">
-        <v>1</v>
+      <c r="D88" s="8">
+        <v>57</v>
       </c>
       <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
         <v>400</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="G88" s="8">
+        <v>134</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -2614,20 +3162,26 @@
       <c r="C89" s="4">
         <v>225</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="8">
+        <v>57</v>
+      </c>
+      <c r="E89" s="4">
         <v>2</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89" s="4">
         <v>400</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="G89" s="8">
+        <v>157</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -2638,20 +3192,26 @@
       <c r="C90" s="4">
         <v>225</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="8">
+        <v>57</v>
+      </c>
+      <c r="E90" s="4">
         <v>2</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90" s="4">
         <v>400</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="G90" s="8">
+        <v>157</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -2662,20 +3222,26 @@
       <c r="C91" s="4">
         <v>225</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="8">
+        <v>57</v>
+      </c>
+      <c r="E91" s="4">
         <v>2</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91" s="4">
         <v>400</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="G91" s="8">
+        <v>157</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -2686,20 +3252,26 @@
       <c r="C92" s="4">
         <v>225</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="8">
+        <v>57</v>
+      </c>
+      <c r="E92" s="4">
         <v>2</v>
       </c>
-      <c r="E92" s="4">
+      <c r="F92" s="4">
         <v>400</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="G92" s="8">
+        <v>157</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="4">
         <f t="shared" ref="A93" si="1">A92+1</f>
         <v>91</v>
@@ -2710,20 +3282,26 @@
       <c r="C93" s="5">
         <v>10</v>
       </c>
-      <c r="D93" s="5">
-        <v>0</v>
+      <c r="D93" s="8">
+        <v>4</v>
       </c>
       <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
         <v>56</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="9">
+        <v>15</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="5">
+      <c r="I93" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94" s="4">
         <f>A93+1</f>
         <v>92</v>
@@ -2734,20 +3312,26 @@
       <c r="C94" s="5">
         <v>10</v>
       </c>
-      <c r="D94" s="5">
-        <v>0</v>
+      <c r="D94" s="8">
+        <v>4</v>
       </c>
       <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
         <v>235</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="9">
+        <v>60</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="4">
         <f t="shared" ref="A95:A115" si="2">A94+1</f>
         <v>93</v>
@@ -2758,20 +3342,26 @@
       <c r="C95" s="5">
         <v>50</v>
       </c>
-      <c r="D95" s="5">
-        <v>1</v>
+      <c r="D95" s="8">
+        <v>118</v>
       </c>
       <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
         <v>280</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="9">
+        <v>128</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="5">
+      <c r="I95" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -2782,20 +3372,26 @@
       <c r="C96" s="5">
         <v>50</v>
       </c>
-      <c r="D96" s="5">
-        <v>1</v>
+      <c r="D96" s="8">
+        <v>118</v>
       </c>
       <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
         <v>280</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="9">
+        <v>128</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="5">
+      <c r="I96" s="5">
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -2806,20 +3402,26 @@
       <c r="C97" s="5">
         <v>50</v>
       </c>
-      <c r="D97" s="5">
-        <v>1</v>
+      <c r="D97" s="8">
+        <v>118</v>
       </c>
       <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
         <v>280</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="9">
+        <v>128</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="5">
+      <c r="I97" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -2830,20 +3432,26 @@
       <c r="C98" s="5">
         <v>50</v>
       </c>
-      <c r="D98" s="5">
-        <v>1</v>
+      <c r="D98" s="8">
+        <v>118</v>
       </c>
       <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
         <v>280</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="9">
+        <v>128</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="5">
+      <c r="I98" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -2854,20 +3462,26 @@
       <c r="C99" s="5">
         <v>0</v>
       </c>
-      <c r="D99" s="5">
-        <v>1</v>
+      <c r="D99" s="8">
+        <v>0</v>
       </c>
       <c r="E99" s="5">
-        <v>50</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>50</v>
+      </c>
+      <c r="G99" s="8">
+        <v>118</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="4">
         <f>A99+1</f>
         <v>98</v>
@@ -2878,20 +3492,26 @@
       <c r="C100" s="5">
         <v>0</v>
       </c>
-      <c r="D100" s="5">
-        <v>1</v>
+      <c r="D100" s="8">
+        <v>0</v>
       </c>
       <c r="E100" s="5">
-        <v>50</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>50</v>
+      </c>
+      <c r="G100" s="8">
+        <v>118</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -2902,20 +3522,26 @@
       <c r="C101" s="5">
         <v>0</v>
       </c>
-      <c r="D101" s="5">
-        <v>1</v>
+      <c r="D101" s="8">
+        <v>0</v>
       </c>
       <c r="E101" s="5">
-        <v>50</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>50</v>
+      </c>
+      <c r="G101" s="8">
+        <v>118</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -2926,20 +3552,26 @@
       <c r="C102" s="5">
         <v>0</v>
       </c>
-      <c r="D102" s="5">
-        <v>1</v>
+      <c r="D102" s="8">
+        <v>0</v>
       </c>
       <c r="E102" s="5">
-        <v>50</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>50</v>
+      </c>
+      <c r="G102" s="8">
+        <v>118</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -2950,20 +3582,26 @@
       <c r="C103" s="6">
         <v>0</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="8">
         <v>0</v>
       </c>
       <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
         <v>10</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="G103" s="10">
+        <v>4</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -2974,20 +3612,26 @@
       <c r="C104" s="6">
         <v>0</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="8">
         <v>0</v>
       </c>
       <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
         <v>10</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="G104" s="10">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -2998,20 +3642,26 @@
       <c r="C105" s="6">
         <v>0</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="8">
         <v>0</v>
       </c>
       <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
         <v>303</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="G105" s="10">
+        <v>77</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -3022,20 +3672,26 @@
       <c r="C106" s="6">
         <v>0</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="8">
         <v>0</v>
       </c>
       <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
         <v>303</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="G106" s="10">
+        <v>77</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -3046,20 +3702,26 @@
       <c r="C107" s="6">
         <v>0</v>
       </c>
-      <c r="D107" s="6">
-        <v>1</v>
+      <c r="D107" s="8">
+        <v>0</v>
       </c>
       <c r="E107" s="6">
-        <v>50</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>50</v>
+      </c>
+      <c r="G107" s="8">
+        <v>118</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -3070,20 +3732,26 @@
       <c r="C108" s="6">
         <v>0</v>
       </c>
-      <c r="D108" s="6">
-        <v>1</v>
+      <c r="D108" s="8">
+        <v>0</v>
       </c>
       <c r="E108" s="6">
-        <v>50</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6">
+        <v>50</v>
+      </c>
+      <c r="G108" s="8">
+        <v>118</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -3094,20 +3762,26 @@
       <c r="C109" s="6">
         <v>0</v>
       </c>
-      <c r="D109" s="6">
-        <v>1</v>
+      <c r="D109" s="8">
+        <v>0</v>
       </c>
       <c r="E109" s="6">
-        <v>50</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>50</v>
+      </c>
+      <c r="G109" s="8">
+        <v>118</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -3118,20 +3792,26 @@
       <c r="C110" s="6">
         <v>0</v>
       </c>
-      <c r="D110" s="6">
-        <v>1</v>
+      <c r="D110" s="8">
+        <v>0</v>
       </c>
       <c r="E110" s="6">
-        <v>50</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6">
+        <v>50</v>
+      </c>
+      <c r="G110" s="8">
+        <v>118</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -3142,20 +3822,26 @@
       <c r="C111" s="6">
         <v>0</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="8">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
         <v>2</v>
       </c>
-      <c r="E111" s="6">
-        <v>50</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="F111" s="6">
+        <v>50</v>
+      </c>
+      <c r="G111" s="10">
+        <v>140</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -3166,20 +3852,26 @@
       <c r="C112" s="6">
         <v>0</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
         <v>2</v>
       </c>
-      <c r="E112" s="6">
-        <v>50</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="F112" s="6">
+        <v>50</v>
+      </c>
+      <c r="G112" s="10">
+        <v>140</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -3190,20 +3882,26 @@
       <c r="C113" s="6">
         <v>0</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
         <v>2</v>
       </c>
-      <c r="E113" s="6">
-        <v>50</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="F113" s="6">
+        <v>50</v>
+      </c>
+      <c r="G113" s="10">
+        <v>140</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -3214,20 +3912,26 @@
       <c r="C114" s="6">
         <v>0</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="8">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6">
         <v>2</v>
       </c>
-      <c r="E114" s="6">
-        <v>50</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="F114" s="6">
+        <v>50</v>
+      </c>
+      <c r="G114" s="10">
+        <v>140</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -3238,20 +3942,26 @@
       <c r="C115" s="6">
         <v>0</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="8">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
         <v>2</v>
       </c>
-      <c r="E115" s="6">
-        <v>50</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="F115" s="6">
+        <v>50</v>
+      </c>
+      <c r="G115" s="10">
+        <v>140</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="4">
         <f>A115+1</f>
         <v>114</v>
@@ -3262,20 +3972,26 @@
       <c r="C116" s="4">
         <v>225</v>
       </c>
-      <c r="D116" s="4">
-        <v>0</v>
+      <c r="D116" s="8">
+        <v>57</v>
       </c>
       <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
         <v>80</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="G116" s="8">
+        <v>20</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="4">
         <f t="shared" ref="A117:A128" si="3">A116+1</f>
         <v>115</v>
@@ -3286,20 +4002,26 @@
       <c r="C117" s="4">
         <v>225</v>
       </c>
-      <c r="D117" s="4">
-        <v>0</v>
+      <c r="D117" s="8">
+        <v>57</v>
       </c>
       <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
         <v>80</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="G117" s="8">
+        <v>20</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -3310,20 +4032,26 @@
       <c r="C118" s="4">
         <v>225</v>
       </c>
-      <c r="D118" s="4">
-        <v>0</v>
+      <c r="D118" s="8">
+        <v>57</v>
       </c>
       <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
         <v>80</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="G118" s="8">
+        <v>20</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -3334,20 +4062,26 @@
       <c r="C119" s="4">
         <v>225</v>
       </c>
-      <c r="D119" s="4">
-        <v>0</v>
+      <c r="D119" s="8">
+        <v>57</v>
       </c>
       <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
         <v>235</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="G119" s="8">
+        <v>60</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -3358,20 +4092,26 @@
       <c r="C120" s="4">
         <v>225</v>
       </c>
-      <c r="D120" s="4">
-        <v>1</v>
+      <c r="D120" s="8">
+        <v>57</v>
       </c>
       <c r="E120" s="4">
+        <v>1</v>
+      </c>
+      <c r="F120" s="4">
         <v>400</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="G120" s="8">
+        <v>134</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -3382,20 +4122,26 @@
       <c r="C121" s="4">
         <v>225</v>
       </c>
-      <c r="D121" s="4">
-        <v>1</v>
+      <c r="D121" s="8">
+        <v>57</v>
       </c>
       <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
         <v>400</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="G121" s="8">
+        <v>134</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="4">
         <f>A121+1</f>
         <v>120</v>
@@ -3406,20 +4152,26 @@
       <c r="C122" s="4">
         <v>225</v>
       </c>
-      <c r="D122" s="4">
-        <v>1</v>
+      <c r="D122" s="8">
+        <v>57</v>
       </c>
       <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
         <v>400</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="G122" s="8">
+        <v>134</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -3430,20 +4182,26 @@
       <c r="C123" s="4">
         <v>225</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="8">
+        <v>57</v>
+      </c>
+      <c r="E123" s="4">
         <v>2</v>
       </c>
-      <c r="E123" s="4">
+      <c r="F123" s="4">
         <v>400</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="G123" s="8">
+        <v>157</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -3454,20 +4212,26 @@
       <c r="C124" s="4">
         <v>225</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="8">
+        <v>57</v>
+      </c>
+      <c r="E124" s="4">
         <v>2</v>
       </c>
-      <c r="E124" s="4">
+      <c r="F124" s="4">
         <v>400</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="G124" s="8">
+        <v>157</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -3478,20 +4242,26 @@
       <c r="C125" s="4">
         <v>225</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="8">
+        <v>57</v>
+      </c>
+      <c r="E125" s="4">
         <v>2</v>
       </c>
-      <c r="E125" s="4">
+      <c r="F125" s="4">
         <v>400</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="G125" s="8">
+        <v>157</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -3502,20 +4272,26 @@
       <c r="C126" s="4">
         <v>225</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="8">
+        <v>57</v>
+      </c>
+      <c r="E126" s="4">
         <v>2</v>
       </c>
-      <c r="E126" s="4">
+      <c r="F126" s="4">
         <v>400</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="G126" s="8">
+        <v>157</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -3526,20 +4302,26 @@
       <c r="C127" s="5">
         <v>50</v>
       </c>
-      <c r="D127" s="5">
-        <v>1</v>
+      <c r="D127" s="8">
+        <v>118</v>
       </c>
       <c r="E127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5">
         <v>280</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="8">
+        <v>128</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="5">
+      <c r="I127" s="5">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:9">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -3550,20 +4332,26 @@
       <c r="C128" s="5">
         <v>50</v>
       </c>
-      <c r="D128" s="5">
-        <v>1</v>
+      <c r="D128" s="8">
+        <v>118</v>
       </c>
       <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
         <v>280</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="8">
+        <v>128</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G128" s="5">
+      <c r="I128" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:9">
       <c r="A129" s="4">
         <f>A128+1</f>
         <v>127</v>
@@ -3574,20 +4362,26 @@
       <c r="C129" s="5">
         <v>50</v>
       </c>
-      <c r="D129" s="5">
-        <v>1</v>
+      <c r="D129" s="8">
+        <v>118</v>
       </c>
       <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
         <v>280</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="8">
+        <v>128</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="5">
+      <c r="I129" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:9">
       <c r="A130" s="4">
         <f t="shared" ref="A130:A141" si="4">A129+1</f>
         <v>128</v>
@@ -3598,20 +4392,26 @@
       <c r="C130" s="5">
         <v>50</v>
       </c>
-      <c r="D130" s="5">
-        <v>1</v>
+      <c r="D130" s="8">
+        <v>118</v>
       </c>
       <c r="E130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5">
         <v>280</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="8">
+        <v>128</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G130" s="5">
+      <c r="I130" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:9">
       <c r="A131" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -3622,20 +4422,26 @@
       <c r="C131" s="6">
         <v>0</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="8">
         <v>0</v>
       </c>
       <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
         <v>303</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="G131" s="10">
+        <v>77</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -3646,20 +4452,26 @@
       <c r="C132" s="6">
         <v>0</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="8">
         <v>0</v>
       </c>
       <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="6">
         <v>303</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="G132" s="10">
+        <v>77</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -3670,20 +4482,26 @@
       <c r="C133" s="6">
         <v>0</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="8">
         <v>0</v>
       </c>
       <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
         <v>303</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="G133" s="10">
+        <v>77</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -3694,20 +4512,26 @@
       <c r="C134" s="6">
         <v>0</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="8">
         <v>0</v>
       </c>
       <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
         <v>303</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="G134" s="10">
+        <v>77</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="4">
         <f>A134+1</f>
         <v>133</v>
@@ -3718,20 +4542,26 @@
       <c r="C135" s="6">
         <v>0</v>
       </c>
-      <c r="D135" s="6">
-        <v>1</v>
+      <c r="D135" s="8">
+        <v>0</v>
       </c>
       <c r="E135" s="6">
-        <v>50</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6">
+        <v>50</v>
+      </c>
+      <c r="G135" s="8">
+        <v>118</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -3742,20 +4572,26 @@
       <c r="C136" s="6">
         <v>0</v>
       </c>
-      <c r="D136" s="6">
-        <v>1</v>
+      <c r="D136" s="8">
+        <v>0</v>
       </c>
       <c r="E136" s="6">
-        <v>50</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6">
+        <v>50</v>
+      </c>
+      <c r="G136" s="8">
+        <v>118</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -3766,20 +4602,26 @@
       <c r="C137" s="6">
         <v>0</v>
       </c>
-      <c r="D137" s="6">
-        <v>1</v>
+      <c r="D137" s="8">
+        <v>0</v>
       </c>
       <c r="E137" s="6">
-        <v>50</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>50</v>
+      </c>
+      <c r="G137" s="8">
+        <v>118</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -3790,20 +4632,26 @@
       <c r="C138" s="6">
         <v>0</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="8">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6">
         <v>2</v>
       </c>
-      <c r="E138" s="6">
-        <v>50</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="F138" s="6">
+        <v>50</v>
+      </c>
+      <c r="G138" s="8">
+        <v>140</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -3814,20 +4662,26 @@
       <c r="C139" s="6">
         <v>0</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="8">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
         <v>2</v>
       </c>
-      <c r="E139" s="6">
-        <v>50</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="F139" s="6">
+        <v>50</v>
+      </c>
+      <c r="G139" s="8">
+        <v>140</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -3838,20 +4692,26 @@
       <c r="C140" s="6">
         <v>0</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="8">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6">
         <v>2</v>
       </c>
-      <c r="E140" s="6">
-        <v>50</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="F140" s="6">
+        <v>50</v>
+      </c>
+      <c r="G140" s="8">
+        <v>140</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -3862,16 +4722,22 @@
       <c r="C141" s="6">
         <v>0</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6">
         <v>2</v>
       </c>
-      <c r="E141" s="6">
-        <v>50</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="4">
+      <c r="F141" s="6">
+        <v>50</v>
+      </c>
+      <c r="G141" s="8">
+        <v>140</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3880,4 +4746,4244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
+  <dimension ref="A1:I142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>225</v>
+      </c>
+      <c r="D3" s="8">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80</v>
+      </c>
+      <c r="G3" s="8">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>225</v>
+      </c>
+      <c r="D4" s="8">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>225</v>
+      </c>
+      <c r="D5" s="8">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>235</v>
+      </c>
+      <c r="G5" s="8">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>225</v>
+      </c>
+      <c r="D6" s="8">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>235</v>
+      </c>
+      <c r="G6" s="8">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>225</v>
+      </c>
+      <c r="D7" s="8">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>400</v>
+      </c>
+      <c r="G7" s="8">
+        <v>134</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>225</v>
+      </c>
+      <c r="D8" s="8">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>400</v>
+      </c>
+      <c r="G8" s="8">
+        <v>134</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>225</v>
+      </c>
+      <c r="D9" s="8">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>400</v>
+      </c>
+      <c r="G9" s="8">
+        <v>134</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>225</v>
+      </c>
+      <c r="D10" s="8">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>400</v>
+      </c>
+      <c r="G10" s="8">
+        <v>134</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>225</v>
+      </c>
+      <c r="D11" s="8">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>400</v>
+      </c>
+      <c r="G11" s="8">
+        <v>157</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>225</v>
+      </c>
+      <c r="D12" s="8">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>400</v>
+      </c>
+      <c r="G12" s="8">
+        <v>157</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>225</v>
+      </c>
+      <c r="D13" s="8">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>400</v>
+      </c>
+      <c r="G13" s="8">
+        <v>157</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>225</v>
+      </c>
+      <c r="D14" s="8">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>400</v>
+      </c>
+      <c r="G14" s="8">
+        <v>157</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>50</v>
+      </c>
+      <c r="G18" s="8">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>50</v>
+      </c>
+      <c r="G19" s="8">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8">
+        <v>118</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>225</v>
+      </c>
+      <c r="D21" s="8">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>225</v>
+      </c>
+      <c r="G21" s="10">
+        <v>148</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>225</v>
+      </c>
+      <c r="D22" s="8">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>225</v>
+      </c>
+      <c r="G22" s="10">
+        <v>148</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>225</v>
+      </c>
+      <c r="D23" s="8">
+        <v>57</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>160</v>
+      </c>
+      <c r="G23" s="10">
+        <v>122</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>225</v>
+      </c>
+      <c r="D24" s="8">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>160</v>
+      </c>
+      <c r="G24" s="10">
+        <v>122</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>225</v>
+      </c>
+      <c r="D25" s="8">
+        <v>57</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>160</v>
+      </c>
+      <c r="G25" s="10">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>225</v>
+      </c>
+      <c r="D26" s="8">
+        <v>57</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>160</v>
+      </c>
+      <c r="G26" s="10">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>225</v>
+      </c>
+      <c r="D27" s="8">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>32</v>
+      </c>
+      <c r="G27" s="10">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>225</v>
+      </c>
+      <c r="D28" s="8">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>283</v>
+      </c>
+      <c r="G28" s="10">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
+        <f>A28+1</f>
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
+        <f t="shared" ref="A30:A93" si="0">A29+1</f>
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10</v>
+      </c>
+      <c r="G30" s="10">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>303</v>
+      </c>
+      <c r="G31" s="10">
+        <v>77</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>303</v>
+      </c>
+      <c r="G32" s="10">
+        <v>77</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>50</v>
+      </c>
+      <c r="G33" s="8">
+        <v>118</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>50</v>
+      </c>
+      <c r="G34" s="8">
+        <v>118</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4">
+        <f>A34+1</f>
+        <v>32</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>50</v>
+      </c>
+      <c r="G35" s="8">
+        <v>118</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>50</v>
+      </c>
+      <c r="G36" s="8">
+        <v>118</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+      <c r="F37" s="6">
+        <v>50</v>
+      </c>
+      <c r="G37" s="10">
+        <v>140</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>50</v>
+      </c>
+      <c r="G38" s="10">
+        <v>140</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>50</v>
+      </c>
+      <c r="G39" s="10">
+        <v>140</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>50</v>
+      </c>
+      <c r="G40" s="10">
+        <v>140</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>225</v>
+      </c>
+      <c r="D41" s="8">
+        <v>57</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>80</v>
+      </c>
+      <c r="G41" s="8">
+        <v>20</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>225</v>
+      </c>
+      <c r="D42" s="8">
+        <v>57</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>80</v>
+      </c>
+      <c r="G42" s="8">
+        <v>20</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>225</v>
+      </c>
+      <c r="D43" s="8">
+        <v>57</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>235</v>
+      </c>
+      <c r="G43" s="8">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>225</v>
+      </c>
+      <c r="D44" s="8">
+        <v>57</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>235</v>
+      </c>
+      <c r="G44" s="8">
+        <v>60</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>225</v>
+      </c>
+      <c r="D45" s="8">
+        <v>57</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>400</v>
+      </c>
+      <c r="G45" s="8">
+        <v>134</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>225</v>
+      </c>
+      <c r="D46" s="8">
+        <v>57</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>400</v>
+      </c>
+      <c r="G46" s="8">
+        <v>134</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>225</v>
+      </c>
+      <c r="D47" s="8">
+        <v>57</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>400</v>
+      </c>
+      <c r="G47" s="8">
+        <v>134</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>225</v>
+      </c>
+      <c r="D48" s="8">
+        <v>57</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>400</v>
+      </c>
+      <c r="G48" s="8">
+        <v>134</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>225</v>
+      </c>
+      <c r="D49" s="8">
+        <v>57</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>400</v>
+      </c>
+      <c r="G49" s="8">
+        <v>157</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>225</v>
+      </c>
+      <c r="D50" s="8">
+        <v>57</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>400</v>
+      </c>
+      <c r="G50" s="8">
+        <v>157</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>225</v>
+      </c>
+      <c r="D51" s="8">
+        <v>57</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>400</v>
+      </c>
+      <c r="G51" s="8">
+        <v>157</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>225</v>
+      </c>
+      <c r="D52" s="8">
+        <v>57</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="F52" s="4">
+        <v>400</v>
+      </c>
+      <c r="G52" s="8">
+        <v>157</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>10</v>
+      </c>
+      <c r="D53" s="8">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>56</v>
+      </c>
+      <c r="G53" s="9">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="8">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>235</v>
+      </c>
+      <c r="G54" s="9">
+        <v>60</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>50</v>
+      </c>
+      <c r="D55" s="8">
+        <v>118</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>280</v>
+      </c>
+      <c r="G55" s="9">
+        <v>128</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>50</v>
+      </c>
+      <c r="D56" s="8">
+        <v>118</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <v>280</v>
+      </c>
+      <c r="G56" s="9">
+        <v>128</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>50</v>
+      </c>
+      <c r="D57" s="8">
+        <v>118</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>280</v>
+      </c>
+      <c r="G57" s="9">
+        <v>128</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4">
+        <f>A57+1</f>
+        <v>55</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>50</v>
+      </c>
+      <c r="D58" s="8">
+        <v>118</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>280</v>
+      </c>
+      <c r="G58" s="9">
+        <v>128</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
+      <c r="G59" s="9">
+        <v>4</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>10</v>
+      </c>
+      <c r="G60" s="9">
+        <v>4</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5">
+        <v>50</v>
+      </c>
+      <c r="G61" s="8">
+        <v>118</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>50</v>
+      </c>
+      <c r="G62" s="8">
+        <v>118</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>50</v>
+      </c>
+      <c r="G63" s="8">
+        <v>118</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4">
+        <f>A63+1</f>
+        <v>61</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>50</v>
+      </c>
+      <c r="G64" s="8">
+        <v>118</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <v>225</v>
+      </c>
+      <c r="D65" s="8">
+        <v>57</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>225</v>
+      </c>
+      <c r="G65" s="10">
+        <v>148</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6">
+        <v>225</v>
+      </c>
+      <c r="D66" s="8">
+        <v>57</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>225</v>
+      </c>
+      <c r="G66" s="10">
+        <v>148</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6">
+        <v>225</v>
+      </c>
+      <c r="D67" s="8">
+        <v>57</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>283</v>
+      </c>
+      <c r="G67" s="10">
+        <v>72</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>10</v>
+      </c>
+      <c r="G68" s="10">
+        <v>4</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>10</v>
+      </c>
+      <c r="G69" s="10">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>303</v>
+      </c>
+      <c r="G70" s="10">
+        <v>77</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>303</v>
+      </c>
+      <c r="G71" s="10">
+        <v>77</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>50</v>
+      </c>
+      <c r="G72" s="8">
+        <v>118</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>50</v>
+      </c>
+      <c r="G73" s="8">
+        <v>118</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>50</v>
+      </c>
+      <c r="G74" s="8">
+        <v>118</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>50</v>
+      </c>
+      <c r="G75" s="8">
+        <v>118</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" s="6">
+        <v>50</v>
+      </c>
+      <c r="G76" s="10">
+        <v>140</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" s="6">
+        <v>50</v>
+      </c>
+      <c r="G77" s="10">
+        <v>140</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6">
+        <v>50</v>
+      </c>
+      <c r="G78" s="10">
+        <v>140</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" s="6">
+        <v>50</v>
+      </c>
+      <c r="G79" s="10">
+        <v>140</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" s="6">
+        <v>50</v>
+      </c>
+      <c r="G80" s="10">
+        <v>140</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" s="6">
+        <v>50</v>
+      </c>
+      <c r="G81" s="10">
+        <v>140</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="4">
+        <f>A81+1</f>
+        <v>79</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>225</v>
+      </c>
+      <c r="D82" s="8">
+        <v>57</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>80</v>
+      </c>
+      <c r="G82" s="8">
+        <v>20</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4">
+        <v>225</v>
+      </c>
+      <c r="D83" s="8">
+        <v>57</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>80</v>
+      </c>
+      <c r="G83" s="8">
+        <v>20</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="4">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4">
+        <v>225</v>
+      </c>
+      <c r="D84" s="8">
+        <v>57</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>235</v>
+      </c>
+      <c r="G84" s="8">
+        <v>60</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="4">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>225</v>
+      </c>
+      <c r="D85" s="8">
+        <v>57</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>235</v>
+      </c>
+      <c r="G85" s="8">
+        <v>60</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="4">
+        <v>225</v>
+      </c>
+      <c r="D86" s="8">
+        <v>57</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>400</v>
+      </c>
+      <c r="G86" s="8">
+        <v>134</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>225</v>
+      </c>
+      <c r="D87" s="8">
+        <v>57</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>400</v>
+      </c>
+      <c r="G87" s="8">
+        <v>134</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="4">
+        <f>A87+1</f>
+        <v>85</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>225</v>
+      </c>
+      <c r="D88" s="8">
+        <v>57</v>
+      </c>
+      <c r="E88" s="4">
+        <v>1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>400</v>
+      </c>
+      <c r="G88" s="8">
+        <v>134</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>225</v>
+      </c>
+      <c r="D89" s="8">
+        <v>57</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>400</v>
+      </c>
+      <c r="G89" s="8">
+        <v>134</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="4">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>225</v>
+      </c>
+      <c r="D90" s="8">
+        <v>57</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
+      </c>
+      <c r="F90" s="4">
+        <v>400</v>
+      </c>
+      <c r="G90" s="8">
+        <v>157</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="4">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>225</v>
+      </c>
+      <c r="D91" s="8">
+        <v>57</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="4">
+        <v>400</v>
+      </c>
+      <c r="G91" s="8">
+        <v>157</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>225</v>
+      </c>
+      <c r="D92" s="8">
+        <v>57</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2</v>
+      </c>
+      <c r="F92" s="4">
+        <v>400</v>
+      </c>
+      <c r="G92" s="8">
+        <v>157</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>225</v>
+      </c>
+      <c r="D93" s="8">
+        <v>57</v>
+      </c>
+      <c r="E93" s="4">
+        <v>2</v>
+      </c>
+      <c r="F93" s="4">
+        <v>400</v>
+      </c>
+      <c r="G93" s="8">
+        <v>157</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="4">
+        <f t="shared" ref="A94" si="1">A93+1</f>
+        <v>91</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94" s="5">
+        <v>10</v>
+      </c>
+      <c r="D94" s="8">
+        <v>4</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>56</v>
+      </c>
+      <c r="G94" s="9">
+        <v>15</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="4">
+        <f>A94+1</f>
+        <v>92</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>10</v>
+      </c>
+      <c r="D95" s="8">
+        <v>4</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>235</v>
+      </c>
+      <c r="G95" s="9">
+        <v>60</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="4">
+        <f t="shared" ref="A96:A116" si="2">A95+1</f>
+        <v>93</v>
+      </c>
+      <c r="B96" s="5">
+        <v>1</v>
+      </c>
+      <c r="C96" s="5">
+        <v>50</v>
+      </c>
+      <c r="D96" s="8">
+        <v>118</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>280</v>
+      </c>
+      <c r="G96" s="9">
+        <v>128</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="4">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5">
+        <v>50</v>
+      </c>
+      <c r="D97" s="8">
+        <v>118</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
+        <v>280</v>
+      </c>
+      <c r="G97" s="9">
+        <v>128</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="4">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5">
+        <v>50</v>
+      </c>
+      <c r="D98" s="8">
+        <v>118</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
+        <v>280</v>
+      </c>
+      <c r="G98" s="9">
+        <v>128</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="4">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="5">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5">
+        <v>50</v>
+      </c>
+      <c r="D99" s="8">
+        <v>118</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>280</v>
+      </c>
+      <c r="G99" s="9">
+        <v>128</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="4">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>50</v>
+      </c>
+      <c r="G100" s="8">
+        <v>118</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="4">
+        <f>A100+1</f>
+        <v>98</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>50</v>
+      </c>
+      <c r="G101" s="8">
+        <v>118</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="4">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>50</v>
+      </c>
+      <c r="G102" s="8">
+        <v>118</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>50</v>
+      </c>
+      <c r="G103" s="8">
+        <v>118</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="4">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>10</v>
+      </c>
+      <c r="G104" s="10">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="4">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>10</v>
+      </c>
+      <c r="G105" s="10">
+        <v>4</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="4">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6">
+        <v>303</v>
+      </c>
+      <c r="G106" s="10">
+        <v>77</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="4">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B107" s="6">
+        <v>0</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>303</v>
+      </c>
+      <c r="G107" s="10">
+        <v>77</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="4">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6">
+        <v>50</v>
+      </c>
+      <c r="G108" s="8">
+        <v>118</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="4">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="6">
+        <v>0</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>50</v>
+      </c>
+      <c r="G109" s="8">
+        <v>118</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="4">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="6">
+        <v>0</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6">
+        <v>50</v>
+      </c>
+      <c r="G110" s="8">
+        <v>118</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="4">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B111" s="6">
+        <v>0</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0</v>
+      </c>
+      <c r="D111" s="8">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6">
+        <v>50</v>
+      </c>
+      <c r="G111" s="8">
+        <v>118</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="4">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" s="6">
+        <v>50</v>
+      </c>
+      <c r="G112" s="10">
+        <v>140</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="4">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" s="6">
+        <v>50</v>
+      </c>
+      <c r="G113" s="10">
+        <v>140</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="4">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="6">
+        <v>0</v>
+      </c>
+      <c r="C114" s="6">
+        <v>0</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>50</v>
+      </c>
+      <c r="G114" s="10">
+        <v>140</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="4">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0</v>
+      </c>
+      <c r="C115" s="6">
+        <v>0</v>
+      </c>
+      <c r="D115" s="8">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" s="6">
+        <v>50</v>
+      </c>
+      <c r="G115" s="10">
+        <v>140</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="4">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" s="6">
+        <v>50</v>
+      </c>
+      <c r="G116" s="10">
+        <v>140</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="4">
+        <f>A116+1</f>
+        <v>114</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="4">
+        <v>225</v>
+      </c>
+      <c r="D117" s="8">
+        <v>57</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>80</v>
+      </c>
+      <c r="G117" s="8">
+        <v>20</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="4">
+        <f t="shared" ref="A118:A129" si="3">A117+1</f>
+        <v>115</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4">
+        <v>225</v>
+      </c>
+      <c r="D118" s="8">
+        <v>57</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>80</v>
+      </c>
+      <c r="G118" s="8">
+        <v>20</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="4">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="4">
+        <v>225</v>
+      </c>
+      <c r="D119" s="8">
+        <v>57</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>80</v>
+      </c>
+      <c r="G119" s="8">
+        <v>20</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="4">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="4">
+        <v>225</v>
+      </c>
+      <c r="D120" s="8">
+        <v>57</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>235</v>
+      </c>
+      <c r="G120" s="8">
+        <v>60</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="4">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="4">
+        <v>225</v>
+      </c>
+      <c r="D121" s="8">
+        <v>57</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>400</v>
+      </c>
+      <c r="G121" s="8">
+        <v>134</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="4">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4">
+        <v>225</v>
+      </c>
+      <c r="D122" s="8">
+        <v>57</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4">
+        <v>400</v>
+      </c>
+      <c r="G122" s="8">
+        <v>134</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="4">
+        <f>A122+1</f>
+        <v>120</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="4">
+        <v>225</v>
+      </c>
+      <c r="D123" s="8">
+        <v>57</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+      <c r="F123" s="4">
+        <v>400</v>
+      </c>
+      <c r="G123" s="8">
+        <v>134</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="4">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="4">
+        <v>225</v>
+      </c>
+      <c r="D124" s="8">
+        <v>57</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2</v>
+      </c>
+      <c r="F124" s="4">
+        <v>400</v>
+      </c>
+      <c r="G124" s="8">
+        <v>157</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="4">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="4">
+        <v>225</v>
+      </c>
+      <c r="D125" s="8">
+        <v>57</v>
+      </c>
+      <c r="E125" s="4">
+        <v>2</v>
+      </c>
+      <c r="F125" s="4">
+        <v>400</v>
+      </c>
+      <c r="G125" s="8">
+        <v>157</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="4">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="4">
+        <v>225</v>
+      </c>
+      <c r="D126" s="8">
+        <v>57</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4">
+        <v>400</v>
+      </c>
+      <c r="G126" s="8">
+        <v>157</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="4">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="4">
+        <v>225</v>
+      </c>
+      <c r="D127" s="8">
+        <v>57</v>
+      </c>
+      <c r="E127" s="4">
+        <v>2</v>
+      </c>
+      <c r="F127" s="4">
+        <v>400</v>
+      </c>
+      <c r="G127" s="8">
+        <v>157</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B128" s="5">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5">
+        <v>50</v>
+      </c>
+      <c r="D128" s="8">
+        <v>118</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5">
+        <v>280</v>
+      </c>
+      <c r="G128" s="8">
+        <v>128</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="4">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+      <c r="C129" s="5">
+        <v>50</v>
+      </c>
+      <c r="D129" s="8">
+        <v>118</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
+        <v>280</v>
+      </c>
+      <c r="G129" s="8">
+        <v>128</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="4">
+        <f>A129+1</f>
+        <v>127</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5">
+        <v>50</v>
+      </c>
+      <c r="D130" s="8">
+        <v>118</v>
+      </c>
+      <c r="E130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F130" s="5">
+        <v>280</v>
+      </c>
+      <c r="G130" s="8">
+        <v>128</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="4">
+        <f t="shared" ref="A131:A142" si="4">A130+1</f>
+        <v>128</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
+      <c r="C131" s="5">
+        <v>50</v>
+      </c>
+      <c r="D131" s="8">
+        <v>118</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F131" s="5">
+        <v>280</v>
+      </c>
+      <c r="G131" s="8">
+        <v>128</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="4">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
+      <c r="F132" s="6">
+        <v>303</v>
+      </c>
+      <c r="G132" s="10">
+        <v>77</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="4">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
+        <v>303</v>
+      </c>
+      <c r="G133" s="10">
+        <v>77</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="4">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0</v>
+      </c>
+      <c r="D134" s="8">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>303</v>
+      </c>
+      <c r="G134" s="10">
+        <v>77</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="4">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="B135" s="6">
+        <v>0</v>
+      </c>
+      <c r="C135" s="6">
+        <v>0</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="6">
+        <v>303</v>
+      </c>
+      <c r="G135" s="10">
+        <v>77</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="4">
+        <f>A135+1</f>
+        <v>133</v>
+      </c>
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6">
+        <v>50</v>
+      </c>
+      <c r="G136" s="8">
+        <v>118</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="4">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="B137" s="6">
+        <v>0</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>50</v>
+      </c>
+      <c r="G137" s="8">
+        <v>118</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="4">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="B138" s="6">
+        <v>0</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
+      <c r="D138" s="8">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6">
+        <v>50</v>
+      </c>
+      <c r="G138" s="8">
+        <v>118</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="4">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="B139" s="6">
+        <v>0</v>
+      </c>
+      <c r="C139" s="6">
+        <v>0</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
+        <v>2</v>
+      </c>
+      <c r="F139" s="6">
+        <v>50</v>
+      </c>
+      <c r="G139" s="8">
+        <v>140</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="4">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6">
+        <v>2</v>
+      </c>
+      <c r="F140" s="6">
+        <v>50</v>
+      </c>
+      <c r="G140" s="8">
+        <v>140</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="4">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B141" s="6">
+        <v>0</v>
+      </c>
+      <c r="C141" s="6">
+        <v>0</v>
+      </c>
+      <c r="D141" s="8">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6">
+        <v>2</v>
+      </c>
+      <c r="F141" s="6">
+        <v>50</v>
+      </c>
+      <c r="G141" s="8">
+        <v>140</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="4">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B142" s="6">
+        <v>0</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0</v>
+      </c>
+      <c r="D142" s="8">
+        <v>0</v>
+      </c>
+      <c r="E142" s="6">
+        <v>2</v>
+      </c>
+      <c r="F142" s="6">
+        <v>50</v>
+      </c>
+      <c r="G142" s="8">
+        <v>140</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input data/Task_list.xlsx
+++ b/Input data/Task_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A6D38-0698-C344-9B35-0F1D20903DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD8DB5-DA66-8F4D-8731-EB94AE9A88AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="17500" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="16">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,6 +88,14 @@
     <t>End node</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unloading loading time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +105,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +144,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +205,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,19 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="4" width="21.1640625" customWidth="1"/>
     <col min="6" max="7" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,11 +566,17 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -579,11 +604,17 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -611,11 +642,17 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -643,11 +680,17 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -675,9 +718,14 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -705,9 +753,14 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -735,8 +788,14 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -764,9 +823,14 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -794,9 +858,14 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -824,9 +893,14 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -854,9 +928,14 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -884,9 +963,14 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -914,8 +998,14 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -943,8 +1033,14 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -972,8 +1068,14 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1001,8 +1103,14 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1030,8 +1138,14 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1059,8 +1173,14 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1088,8 +1208,14 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1117,8 +1243,14 @@
       <c r="I20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1146,8 +1278,14 @@
       <c r="I21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1175,8 +1313,14 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1204,8 +1348,14 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1233,8 +1383,14 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1262,8 +1418,14 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1291,8 +1453,14 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1320,8 +1488,14 @@
       <c r="I27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>26</v>
@@ -1350,8 +1524,14 @@
       <c r="I28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f t="shared" ref="A29:A92" si="0">A28+1</f>
         <v>27</v>
@@ -1380,8 +1560,14 @@
       <c r="I29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1410,8 +1596,14 @@
       <c r="I30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1440,8 +1632,14 @@
       <c r="I31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1470,8 +1668,14 @@
       <c r="I32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1500,8 +1704,14 @@
       <c r="I33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f>A33+1</f>
         <v>32</v>
@@ -1530,8 +1740,14 @@
       <c r="I34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1560,8 +1776,14 @@
       <c r="I35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1590,8 +1812,14 @@
       <c r="I36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1620,8 +1848,14 @@
       <c r="I37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1650,8 +1884,14 @@
       <c r="I38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1680,8 +1920,14 @@
       <c r="I39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1710,8 +1956,14 @@
       <c r="I40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1740,8 +1992,14 @@
       <c r="I41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1770,8 +2028,14 @@
       <c r="I42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1800,8 +2064,14 @@
       <c r="I43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1830,8 +2100,14 @@
       <c r="I44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1860,8 +2136,14 @@
       <c r="I45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1890,8 +2172,14 @@
       <c r="I46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1920,8 +2208,14 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1950,8 +2244,14 @@
       <c r="I48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1980,8 +2280,14 @@
       <c r="I49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2010,8 +2316,14 @@
       <c r="I50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2040,8 +2352,14 @@
       <c r="I51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2070,8 +2388,14 @@
       <c r="I52" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2100,8 +2424,14 @@
       <c r="I53" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2130,8 +2460,14 @@
       <c r="I54" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2160,8 +2496,14 @@
       <c r="I55" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2190,8 +2532,14 @@
       <c r="I56" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>55</v>
@@ -2220,8 +2568,14 @@
       <c r="I57" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2250,8 +2604,14 @@
       <c r="I58" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="K58" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2280,8 +2640,14 @@
       <c r="I59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="4">
+        <v>2</v>
+      </c>
+      <c r="K59" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2310,8 +2676,14 @@
       <c r="I60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2340,8 +2712,14 @@
       <c r="I61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2370,8 +2748,14 @@
       <c r="I62" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="K62" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>61</v>
@@ -2400,8 +2784,14 @@
       <c r="I63" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="K63" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2430,8 +2820,14 @@
       <c r="I64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2460,8 +2856,14 @@
       <c r="I65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2490,8 +2892,14 @@
       <c r="I66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2520,8 +2928,14 @@
       <c r="I67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="4">
+        <v>2</v>
+      </c>
+      <c r="K67" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2550,8 +2964,14 @@
       <c r="I68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="4">
+        <v>2</v>
+      </c>
+      <c r="K68" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2580,8 +3000,14 @@
       <c r="I69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="4">
+        <v>2</v>
+      </c>
+      <c r="K69" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2610,8 +3036,14 @@
       <c r="I70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2640,8 +3072,14 @@
       <c r="I71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="4">
+        <v>2</v>
+      </c>
+      <c r="K71" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2670,8 +3108,14 @@
       <c r="I72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="4">
+        <v>2</v>
+      </c>
+      <c r="K72" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2700,8 +3144,14 @@
       <c r="I73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="4">
+        <v>2</v>
+      </c>
+      <c r="K73" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -2730,8 +3180,14 @@
       <c r="I74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -2760,8 +3216,14 @@
       <c r="I75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="4">
+        <v>2</v>
+      </c>
+      <c r="K75" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -2790,8 +3252,14 @@
       <c r="I76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="4">
+        <v>2</v>
+      </c>
+      <c r="K76" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -2820,8 +3288,14 @@
       <c r="I77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -2850,8 +3324,14 @@
       <c r="I78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="4">
+        <v>2</v>
+      </c>
+      <c r="K78" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -2880,8 +3360,14 @@
       <c r="I79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="4">
+        <v>2</v>
+      </c>
+      <c r="K79" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2910,8 +3396,14 @@
       <c r="I80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="4">
+        <v>2</v>
+      </c>
+      <c r="K80" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <f>A80+1</f>
         <v>79</v>
@@ -2940,8 +3432,14 @@
       <c r="I81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2970,8 +3468,14 @@
       <c r="I82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -3000,8 +3504,14 @@
       <c r="I83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -3030,8 +3540,14 @@
       <c r="I84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3060,8 +3576,14 @@
       <c r="I85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3090,8 +3612,14 @@
       <c r="I86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <f>A86+1</f>
         <v>85</v>
@@ -3120,8 +3648,14 @@
       <c r="I87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -3150,8 +3684,14 @@
       <c r="I88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -3180,8 +3720,14 @@
       <c r="I89" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -3210,8 +3756,14 @@
       <c r="I90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -3240,8 +3792,14 @@
       <c r="I91" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -3270,8 +3828,14 @@
       <c r="I92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="4">
+        <v>1</v>
+      </c>
+      <c r="K92" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <f t="shared" ref="A93" si="1">A92+1</f>
         <v>91</v>
@@ -3300,8 +3864,14 @@
       <c r="I93" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <f>A93+1</f>
         <v>92</v>
@@ -3330,8 +3900,14 @@
       <c r="I94" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <f t="shared" ref="A95:A115" si="2">A94+1</f>
         <v>93</v>
@@ -3360,8 +3936,14 @@
       <c r="I95" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -3390,8 +3972,14 @@
       <c r="I96" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -3420,8 +4008,14 @@
       <c r="I97" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -3450,8 +4044,14 @@
       <c r="I98" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -3480,8 +4080,14 @@
       <c r="I99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="4">
+        <v>2</v>
+      </c>
+      <c r="K99" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <f>A99+1</f>
         <v>98</v>
@@ -3510,8 +4116,14 @@
       <c r="I100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="4">
+        <v>2</v>
+      </c>
+      <c r="K100" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -3540,8 +4152,14 @@
       <c r="I101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+      <c r="K101" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -3570,8 +4188,14 @@
       <c r="I102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="4">
+        <v>2</v>
+      </c>
+      <c r="K102" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -3600,8 +4224,14 @@
       <c r="I103" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="4">
+        <v>2</v>
+      </c>
+      <c r="K103" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -3630,8 +4260,14 @@
       <c r="I104" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K104" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -3660,8 +4296,14 @@
       <c r="I105" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="4">
+        <v>2</v>
+      </c>
+      <c r="K105" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -3690,8 +4332,14 @@
       <c r="I106" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -3720,8 +4368,14 @@
       <c r="I107" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -3750,8 +4404,14 @@
       <c r="I108" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -3780,8 +4440,14 @@
       <c r="I109" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -3810,8 +4476,14 @@
       <c r="I110" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -3840,8 +4512,14 @@
       <c r="I111" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -3870,8 +4548,14 @@
       <c r="I112" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="4">
+        <v>2</v>
+      </c>
+      <c r="K112" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -3900,8 +4584,14 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="4">
+        <v>2</v>
+      </c>
+      <c r="K113" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -3930,8 +4620,14 @@
       <c r="I114" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="4">
+        <v>2</v>
+      </c>
+      <c r="K114" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -3960,8 +4656,14 @@
       <c r="I115" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="4">
+        <v>2</v>
+      </c>
+      <c r="K115" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="4">
         <f>A115+1</f>
         <v>114</v>
@@ -3990,8 +4692,14 @@
       <c r="I116" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="4">
         <f t="shared" ref="A117:A128" si="3">A116+1</f>
         <v>115</v>
@@ -4020,8 +4728,14 @@
       <c r="I117" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -4050,8 +4764,14 @@
       <c r="I118" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -4080,8 +4800,14 @@
       <c r="I119" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+      <c r="K119" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -4110,8 +4836,14 @@
       <c r="I120" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="4">
+        <v>1</v>
+      </c>
+      <c r="K120" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -4140,8 +4872,14 @@
       <c r="I121" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="4">
         <f>A121+1</f>
         <v>120</v>
@@ -4170,8 +4908,14 @@
       <c r="I122" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -4200,8 +4944,14 @@
       <c r="I123" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -4230,8 +4980,14 @@
       <c r="I124" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -4260,8 +5016,14 @@
       <c r="I125" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -4290,8 +5052,14 @@
       <c r="I126" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -4320,8 +5088,14 @@
       <c r="I127" s="5">
         <v>97</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -4350,8 +5124,14 @@
       <c r="I128" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="4">
         <f>A128+1</f>
         <v>127</v>
@@ -4380,8 +5160,14 @@
       <c r="I129" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="4">
         <f t="shared" ref="A130:A141" si="4">A129+1</f>
         <v>128</v>
@@ -4410,8 +5196,14 @@
       <c r="I130" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="K130" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -4440,8 +5232,14 @@
       <c r="I131" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="4">
+        <v>2</v>
+      </c>
+      <c r="K131" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -4470,8 +5268,14 @@
       <c r="I132" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="4">
+        <v>2</v>
+      </c>
+      <c r="K132" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -4500,8 +5304,14 @@
       <c r="I133" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="4">
+        <v>2</v>
+      </c>
+      <c r="K133" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -4530,8 +5340,14 @@
       <c r="I134" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="4">
+        <v>2</v>
+      </c>
+      <c r="K134" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="4">
         <f>A134+1</f>
         <v>133</v>
@@ -4560,8 +5376,14 @@
       <c r="I135" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="4">
+        <v>2</v>
+      </c>
+      <c r="K135" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -4590,8 +5412,14 @@
       <c r="I136" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="4">
+        <v>2</v>
+      </c>
+      <c r="K136" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -4620,8 +5448,14 @@
       <c r="I137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="4">
+        <v>2</v>
+      </c>
+      <c r="K137" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -4650,8 +5484,14 @@
       <c r="I138" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="4">
+        <v>2</v>
+      </c>
+      <c r="K138" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -4680,8 +5520,14 @@
       <c r="I139" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="4">
+        <v>2</v>
+      </c>
+      <c r="K139" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -4710,8 +5556,14 @@
       <c r="I140" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="4">
+        <v>2</v>
+      </c>
+      <c r="K140" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -4739,6 +5591,12 @@
       </c>
       <c r="I141" s="4">
         <v>0</v>
+      </c>
+      <c r="J141" s="4">
+        <v>2</v>
+      </c>
+      <c r="K141" s="11">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4750,15 +5608,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4786,8 +5648,14 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -4807,8 +5675,14 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -4836,8 +5710,14 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4865,8 +5745,14 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4894,8 +5780,14 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4923,8 +5815,14 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4952,8 +5850,14 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -4981,8 +5885,14 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -5010,8 +5920,14 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -5039,8 +5955,14 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -5068,8 +5990,14 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -5097,8 +6025,14 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -5126,8 +6060,14 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -5155,8 +6095,14 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -5184,8 +6130,14 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -5213,8 +6165,14 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -5242,8 +6200,14 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -5271,8 +6235,14 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -5300,8 +6270,14 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5329,8 +6305,14 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5358,8 +6340,14 @@
       <c r="I21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5387,8 +6375,14 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -5416,8 +6410,14 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -5445,8 +6445,14 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -5474,8 +6480,14 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -5503,8 +6515,14 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -5532,8 +6550,14 @@
       <c r="I27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -5561,8 +6585,14 @@
       <c r="I28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <f>A28+1</f>
         <v>26</v>
@@ -5591,8 +6621,14 @@
       <c r="I29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <f t="shared" ref="A30:A93" si="0">A29+1</f>
         <v>27</v>
@@ -5621,8 +6657,14 @@
       <c r="I30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5651,8 +6693,14 @@
       <c r="I31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5681,8 +6729,14 @@
       <c r="I32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5711,8 +6765,14 @@
       <c r="I33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5741,8 +6801,14 @@
       <c r="I34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <f>A34+1</f>
         <v>32</v>
@@ -5771,8 +6837,14 @@
       <c r="I35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="4">
+        <v>2</v>
+      </c>
+      <c r="K35" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5801,8 +6873,14 @@
       <c r="I36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5831,8 +6909,14 @@
       <c r="I37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5861,8 +6945,14 @@
       <c r="I38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5891,8 +6981,14 @@
       <c r="I39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5921,8 +7017,14 @@
       <c r="I40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5951,8 +7053,14 @@
       <c r="I41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5981,8 +7089,14 @@
       <c r="I42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6011,8 +7125,14 @@
       <c r="I43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6041,8 +7161,14 @@
       <c r="I44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6071,8 +7197,14 @@
       <c r="I45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6101,8 +7233,14 @@
       <c r="I46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6131,8 +7269,14 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6161,8 +7305,14 @@
       <c r="I48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6191,8 +7341,14 @@
       <c r="I49" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6221,8 +7377,14 @@
       <c r="I50" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6251,8 +7413,14 @@
       <c r="I51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6281,8 +7449,14 @@
       <c r="I52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6311,8 +7485,14 @@
       <c r="I53" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6341,8 +7521,14 @@
       <c r="I54" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6371,8 +7557,14 @@
       <c r="I55" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6401,8 +7593,14 @@
       <c r="I56" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6431,8 +7629,14 @@
       <c r="I57" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <f>A57+1</f>
         <v>55</v>
@@ -6461,8 +7665,14 @@
       <c r="I58" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="K58" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6491,8 +7701,14 @@
       <c r="I59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="4">
+        <v>2</v>
+      </c>
+      <c r="K59" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6521,8 +7737,14 @@
       <c r="I60" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="K60" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6551,8 +7773,14 @@
       <c r="I61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="K61" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6581,8 +7809,14 @@
       <c r="I62" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="K62" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6611,8 +7845,14 @@
       <c r="I63" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="K63" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <f>A63+1</f>
         <v>61</v>
@@ -6641,8 +7881,14 @@
       <c r="I64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6671,8 +7917,14 @@
       <c r="I65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6701,8 +7953,14 @@
       <c r="I66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6731,8 +7989,14 @@
       <c r="I67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="4">
+        <v>2</v>
+      </c>
+      <c r="K67" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6761,8 +8025,14 @@
       <c r="I68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="4">
+        <v>2</v>
+      </c>
+      <c r="K68" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6791,8 +8061,14 @@
       <c r="I69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="4">
+        <v>2</v>
+      </c>
+      <c r="K69" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -6821,8 +8097,14 @@
       <c r="I70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -6851,8 +8133,14 @@
       <c r="I71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="4">
+        <v>2</v>
+      </c>
+      <c r="K71" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -6881,8 +8169,14 @@
       <c r="I72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="4">
+        <v>2</v>
+      </c>
+      <c r="K72" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -6911,8 +8205,14 @@
       <c r="I73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="4">
+        <v>2</v>
+      </c>
+      <c r="K73" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -6941,8 +8241,14 @@
       <c r="I74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="4">
+        <v>2</v>
+      </c>
+      <c r="K74" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -6971,8 +8277,14 @@
       <c r="I75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="4">
+        <v>2</v>
+      </c>
+      <c r="K75" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -7001,8 +8313,14 @@
       <c r="I76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="4">
+        <v>2</v>
+      </c>
+      <c r="K76" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -7031,8 +8349,14 @@
       <c r="I77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="4">
+        <v>2</v>
+      </c>
+      <c r="K77" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -7061,8 +8385,14 @@
       <c r="I78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="4">
+        <v>2</v>
+      </c>
+      <c r="K78" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -7091,8 +8421,14 @@
       <c r="I79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="4">
+        <v>2</v>
+      </c>
+      <c r="K79" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -7121,8 +8457,14 @@
       <c r="I80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="4">
+        <v>2</v>
+      </c>
+      <c r="K80" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -7151,8 +8493,14 @@
       <c r="I81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="4">
+        <v>1</v>
+      </c>
+      <c r="K81" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <f>A81+1</f>
         <v>79</v>
@@ -7181,8 +8529,14 @@
       <c r="I82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -7211,8 +8565,14 @@
       <c r="I83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -7241,8 +8601,14 @@
       <c r="I84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -7271,8 +8637,14 @@
       <c r="I85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -7301,8 +8673,14 @@
       <c r="I86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -7331,8 +8709,14 @@
       <c r="I87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <f>A87+1</f>
         <v>85</v>
@@ -7361,8 +8745,14 @@
       <c r="I88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -7391,8 +8781,14 @@
       <c r="I89" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -7421,8 +8817,14 @@
       <c r="I90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -7451,8 +8853,14 @@
       <c r="I91" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -7481,8 +8889,14 @@
       <c r="I92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="4">
+        <v>1</v>
+      </c>
+      <c r="K92" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -7511,8 +8925,14 @@
       <c r="I93" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <f t="shared" ref="A94" si="1">A93+1</f>
         <v>91</v>
@@ -7541,8 +8961,14 @@
       <c r="I94" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <f>A94+1</f>
         <v>92</v>
@@ -7571,8 +8997,14 @@
       <c r="I95" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <f t="shared" ref="A96:A116" si="2">A95+1</f>
         <v>93</v>
@@ -7601,8 +9033,14 @@
       <c r="I96" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -7631,8 +9069,14 @@
       <c r="I97" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -7661,8 +9105,14 @@
       <c r="I98" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -7691,8 +9141,14 @@
       <c r="I99" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="4">
+        <v>2</v>
+      </c>
+      <c r="K99" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -7721,8 +9177,14 @@
       <c r="I100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="4">
+        <v>2</v>
+      </c>
+      <c r="K100" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <f>A100+1</f>
         <v>98</v>
@@ -7751,8 +9213,14 @@
       <c r="I101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+      <c r="K101" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -7781,8 +9249,14 @@
       <c r="I102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="4">
+        <v>2</v>
+      </c>
+      <c r="K102" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -7811,8 +9285,14 @@
       <c r="I103" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="4">
+        <v>2</v>
+      </c>
+      <c r="K103" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -7841,8 +9321,14 @@
       <c r="I104" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K104" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -7871,8 +9357,14 @@
       <c r="I105" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="4">
+        <v>2</v>
+      </c>
+      <c r="K105" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -7901,8 +9393,14 @@
       <c r="I106" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -7931,8 +9429,14 @@
       <c r="I107" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -7961,8 +9465,14 @@
       <c r="I108" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="4">
+        <v>2</v>
+      </c>
+      <c r="K108" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -7991,8 +9501,14 @@
       <c r="I109" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="4">
+        <v>2</v>
+      </c>
+      <c r="K109" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -8021,8 +9537,14 @@
       <c r="I110" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="4">
+        <v>2</v>
+      </c>
+      <c r="K110" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -8051,8 +9573,14 @@
       <c r="I111" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="4">
+        <v>2</v>
+      </c>
+      <c r="K111" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -8081,8 +9609,14 @@
       <c r="I112" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="4">
+        <v>2</v>
+      </c>
+      <c r="K112" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -8111,8 +9645,14 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="4">
+        <v>2</v>
+      </c>
+      <c r="K113" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -8141,8 +9681,14 @@
       <c r="I114" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="4">
+        <v>2</v>
+      </c>
+      <c r="K114" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -8171,8 +9717,14 @@
       <c r="I115" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="4">
+        <v>2</v>
+      </c>
+      <c r="K115" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -8201,8 +9753,14 @@
       <c r="I116" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="4">
         <f>A116+1</f>
         <v>114</v>
@@ -8231,8 +9789,14 @@
       <c r="I117" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="4">
         <f t="shared" ref="A118:A129" si="3">A117+1</f>
         <v>115</v>
@@ -8261,8 +9825,14 @@
       <c r="I118" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -8291,8 +9861,14 @@
       <c r="I119" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+      <c r="K119" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -8321,8 +9897,14 @@
       <c r="I120" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="4">
+        <v>1</v>
+      </c>
+      <c r="K120" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -8351,8 +9933,14 @@
       <c r="I121" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -8381,8 +9969,14 @@
       <c r="I122" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="4">
         <f>A122+1</f>
         <v>120</v>
@@ -8411,8 +10005,14 @@
       <c r="I123" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -8441,8 +10041,14 @@
       <c r="I124" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -8471,8 +10077,14 @@
       <c r="I125" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -8501,8 +10113,14 @@
       <c r="I126" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -8531,8 +10149,14 @@
       <c r="I127" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -8561,8 +10185,14 @@
       <c r="I128" s="5">
         <v>97</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -8591,8 +10221,14 @@
       <c r="I129" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="4">
         <f>A129+1</f>
         <v>127</v>
@@ -8621,8 +10257,14 @@
       <c r="I130" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="K130" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="4">
         <f t="shared" ref="A131:A142" si="4">A130+1</f>
         <v>128</v>
@@ -8651,8 +10293,14 @@
       <c r="I131" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="4">
+        <v>2</v>
+      </c>
+      <c r="K131" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -8681,8 +10329,14 @@
       <c r="I132" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="4">
+        <v>2</v>
+      </c>
+      <c r="K132" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -8711,8 +10365,14 @@
       <c r="I133" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="4">
+        <v>2</v>
+      </c>
+      <c r="K133" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -8741,8 +10401,14 @@
       <c r="I134" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="4">
+        <v>2</v>
+      </c>
+      <c r="K134" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -8771,8 +10437,14 @@
       <c r="I135" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="4">
+        <v>2</v>
+      </c>
+      <c r="K135" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="4">
         <f>A135+1</f>
         <v>133</v>
@@ -8801,8 +10473,14 @@
       <c r="I136" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="4">
+        <v>2</v>
+      </c>
+      <c r="K136" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -8831,8 +10509,14 @@
       <c r="I137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="4">
+        <v>2</v>
+      </c>
+      <c r="K137" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -8861,8 +10545,14 @@
       <c r="I138" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="4">
+        <v>2</v>
+      </c>
+      <c r="K138" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -8891,8 +10581,14 @@
       <c r="I139" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="4">
+        <v>2</v>
+      </c>
+      <c r="K139" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -8921,8 +10617,14 @@
       <c r="I140" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="4">
+        <v>2</v>
+      </c>
+      <c r="K140" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -8951,8 +10653,14 @@
       <c r="I141" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="4">
+        <v>2</v>
+      </c>
+      <c r="K141" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="4">
         <f t="shared" si="4"/>
         <v>139</v>

--- a/Input data/Task_list.xlsx
+++ b/Input data/Task_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD8DB5-DA66-8F4D-8731-EB94AE9A88AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7B2EF-A41F-2F40-883B-0C5B5221802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="17500" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,7 +93,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unloading loading time</t>
+    <t>loading time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unloading time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -536,6 +540,7 @@
     <col min="6" max="7" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -572,6 +577,9 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,7 +616,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L2" s="11">
+        <v>35</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
@@ -646,7 +657,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L3" s="11">
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>7</v>
@@ -684,7 +698,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L4" s="11">
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>10</v>
@@ -722,7 +739,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L5" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -757,7 +777,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L6" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -792,7 +815,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L7" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -827,7 +853,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L8" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -862,7 +891,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L9" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -897,7 +929,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L10" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -932,7 +967,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L11" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -967,7 +1005,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L12" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1002,7 +1043,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="11">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="L13" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1037,7 +1081,10 @@
         <v>2</v>
       </c>
       <c r="K14" s="11">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="L14" s="11">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1072,7 +1119,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="11">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="L15" s="11">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1107,10 +1157,13 @@
         <v>2</v>
       </c>
       <c r="K16" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L16" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1142,10 +1195,13 @@
         <v>2</v>
       </c>
       <c r="K17" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L17" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1177,10 +1233,13 @@
         <v>2</v>
       </c>
       <c r="K18" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L18" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1212,10 +1271,13 @@
         <v>2</v>
       </c>
       <c r="K19" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L19" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1247,10 +1309,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L20" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1282,10 +1347,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L21" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1317,10 +1385,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L22" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1352,10 +1423,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L23" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1387,10 +1461,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L24" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1422,10 +1499,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L25" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1457,10 +1537,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L26" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1492,10 +1575,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L27" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>26</v>
@@ -1528,10 +1614,13 @@
         <v>2</v>
       </c>
       <c r="K28" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L28" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <f t="shared" ref="A29:A92" si="0">A28+1</f>
         <v>27</v>
@@ -1564,10 +1653,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L29" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1600,10 +1692,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L30" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1636,10 +1731,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L31" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1672,10 +1770,13 @@
         <v>2</v>
       </c>
       <c r="K32" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L32" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1708,10 +1809,13 @@
         <v>2</v>
       </c>
       <c r="K33" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L33" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <f>A33+1</f>
         <v>32</v>
@@ -1744,10 +1848,13 @@
         <v>2</v>
       </c>
       <c r="K34" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L34" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1780,10 +1887,13 @@
         <v>2</v>
       </c>
       <c r="K35" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L35" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1816,10 +1926,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L36" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1852,10 +1965,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L37" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1888,10 +2004,13 @@
         <v>2</v>
       </c>
       <c r="K38" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L38" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1924,10 +2043,13 @@
         <v>2</v>
       </c>
       <c r="K39" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L39" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1960,10 +2082,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L40" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1996,10 +2121,13 @@
         <v>1</v>
       </c>
       <c r="K41" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L41" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2032,10 +2160,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L42" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2068,10 +2199,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L43" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2104,10 +2238,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L44" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2140,10 +2277,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L45" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2176,10 +2316,13 @@
         <v>1</v>
       </c>
       <c r="K46" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L46" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2212,10 +2355,13 @@
         <v>1</v>
       </c>
       <c r="K47" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L47" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2248,10 +2394,13 @@
         <v>1</v>
       </c>
       <c r="K48" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L48" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2284,10 +2433,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L49" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2320,10 +2472,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L50" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2356,10 +2511,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L51" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2392,10 +2550,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L52" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2428,10 +2589,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L53" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2464,10 +2628,13 @@
         <v>1</v>
       </c>
       <c r="K54" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L54" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2500,10 +2667,13 @@
         <v>1</v>
       </c>
       <c r="K55" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L55" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2536,10 +2706,13 @@
         <v>1</v>
       </c>
       <c r="K56" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L56" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>55</v>
@@ -2572,10 +2745,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L57" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2608,10 +2784,13 @@
         <v>2</v>
       </c>
       <c r="K58" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L58" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2644,10 +2823,13 @@
         <v>2</v>
       </c>
       <c r="K59" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L59" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2680,10 +2862,13 @@
         <v>2</v>
       </c>
       <c r="K60" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L60" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2716,10 +2901,13 @@
         <v>2</v>
       </c>
       <c r="K61" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L61" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2752,10 +2940,13 @@
         <v>2</v>
       </c>
       <c r="K62" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L62" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>61</v>
@@ -2788,10 +2979,13 @@
         <v>2</v>
       </c>
       <c r="K63" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L63" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2824,10 +3018,13 @@
         <v>1</v>
       </c>
       <c r="K64" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L64" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2860,10 +3057,13 @@
         <v>1</v>
       </c>
       <c r="K65" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L65" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2896,10 +3096,13 @@
         <v>1</v>
       </c>
       <c r="K66" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L66" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2932,10 +3135,13 @@
         <v>2</v>
       </c>
       <c r="K67" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L67" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2968,10 +3174,13 @@
         <v>2</v>
       </c>
       <c r="K68" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L68" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3004,10 +3213,13 @@
         <v>2</v>
       </c>
       <c r="K69" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L69" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3040,10 +3252,13 @@
         <v>2</v>
       </c>
       <c r="K70" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L70" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3076,10 +3291,13 @@
         <v>2</v>
       </c>
       <c r="K71" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L71" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3112,10 +3330,13 @@
         <v>2</v>
       </c>
       <c r="K72" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L72" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3148,10 +3369,13 @@
         <v>2</v>
       </c>
       <c r="K73" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L73" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3184,10 +3408,13 @@
         <v>2</v>
       </c>
       <c r="K74" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L74" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3220,10 +3447,13 @@
         <v>2</v>
       </c>
       <c r="K75" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L75" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3256,10 +3486,13 @@
         <v>2</v>
       </c>
       <c r="K76" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L76" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -3292,10 +3525,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L77" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -3328,10 +3564,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L78" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -3364,10 +3603,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L79" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -3400,10 +3642,13 @@
         <v>2</v>
       </c>
       <c r="K80" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L80" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <f>A80+1</f>
         <v>79</v>
@@ -3436,10 +3681,13 @@
         <v>1</v>
       </c>
       <c r="K81" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L81" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -3472,10 +3720,13 @@
         <v>1</v>
       </c>
       <c r="K82" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L82" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -3508,10 +3759,13 @@
         <v>1</v>
       </c>
       <c r="K83" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L83" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -3544,10 +3798,13 @@
         <v>1</v>
       </c>
       <c r="K84" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L84" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3580,10 +3837,13 @@
         <v>1</v>
       </c>
       <c r="K85" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L85" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3616,10 +3876,13 @@
         <v>1</v>
       </c>
       <c r="K86" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L86" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <f>A86+1</f>
         <v>85</v>
@@ -3652,10 +3915,13 @@
         <v>1</v>
       </c>
       <c r="K87" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L87" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -3688,10 +3954,13 @@
         <v>1</v>
       </c>
       <c r="K88" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L88" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -3724,10 +3993,13 @@
         <v>1</v>
       </c>
       <c r="K89" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L89" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -3760,10 +4032,13 @@
         <v>1</v>
       </c>
       <c r="K90" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L90" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -3796,10 +4071,13 @@
         <v>1</v>
       </c>
       <c r="K91" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L91" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -3832,10 +4110,13 @@
         <v>1</v>
       </c>
       <c r="K92" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L92" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <f t="shared" ref="A93" si="1">A92+1</f>
         <v>91</v>
@@ -3868,10 +4149,13 @@
         <v>1</v>
       </c>
       <c r="K93" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L93" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <f>A93+1</f>
         <v>92</v>
@@ -3904,10 +4188,13 @@
         <v>1</v>
       </c>
       <c r="K94" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L94" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <f t="shared" ref="A95:A115" si="2">A94+1</f>
         <v>93</v>
@@ -3940,10 +4227,13 @@
         <v>1</v>
       </c>
       <c r="K95" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L95" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -3976,10 +4266,13 @@
         <v>1</v>
       </c>
       <c r="K96" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L96" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -4012,10 +4305,13 @@
         <v>1</v>
       </c>
       <c r="K97" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L97" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -4048,10 +4344,13 @@
         <v>1</v>
       </c>
       <c r="K98" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L98" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -4084,10 +4383,13 @@
         <v>2</v>
       </c>
       <c r="K99" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L99" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <f>A99+1</f>
         <v>98</v>
@@ -4120,10 +4422,13 @@
         <v>2</v>
       </c>
       <c r="K100" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L100" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -4156,10 +4461,13 @@
         <v>2</v>
       </c>
       <c r="K101" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L101" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4192,10 +4500,13 @@
         <v>2</v>
       </c>
       <c r="K102" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L102" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -4228,10 +4539,13 @@
         <v>2</v>
       </c>
       <c r="K103" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L103" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -4264,10 +4578,13 @@
         <v>2</v>
       </c>
       <c r="K104" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L104" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -4300,10 +4617,13 @@
         <v>2</v>
       </c>
       <c r="K105" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L105" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -4336,10 +4656,13 @@
         <v>2</v>
       </c>
       <c r="K106" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L106" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -4372,10 +4695,13 @@
         <v>2</v>
       </c>
       <c r="K107" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L107" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -4408,10 +4734,13 @@
         <v>2</v>
       </c>
       <c r="K108" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L108" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -4444,10 +4773,13 @@
         <v>2</v>
       </c>
       <c r="K109" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L109" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -4480,10 +4812,13 @@
         <v>2</v>
       </c>
       <c r="K110" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L110" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -4516,10 +4851,13 @@
         <v>2</v>
       </c>
       <c r="K111" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L111" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -4552,10 +4890,13 @@
         <v>2</v>
       </c>
       <c r="K112" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L112" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -4588,10 +4929,13 @@
         <v>2</v>
       </c>
       <c r="K113" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L113" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -4624,10 +4968,13 @@
         <v>2</v>
       </c>
       <c r="K114" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L114" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -4660,10 +5007,13 @@
         <v>2</v>
       </c>
       <c r="K115" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L115" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <f>A115+1</f>
         <v>114</v>
@@ -4696,10 +5046,13 @@
         <v>1</v>
       </c>
       <c r="K116" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L116" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <f t="shared" ref="A117:A128" si="3">A116+1</f>
         <v>115</v>
@@ -4732,10 +5085,13 @@
         <v>1</v>
       </c>
       <c r="K117" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L117" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -4768,10 +5124,13 @@
         <v>1</v>
       </c>
       <c r="K118" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L118" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -4804,10 +5163,13 @@
         <v>1</v>
       </c>
       <c r="K119" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L119" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -4840,10 +5202,13 @@
         <v>1</v>
       </c>
       <c r="K120" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L120" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -4876,10 +5241,13 @@
         <v>1</v>
       </c>
       <c r="K121" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L121" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <f>A121+1</f>
         <v>120</v>
@@ -4912,10 +5280,13 @@
         <v>1</v>
       </c>
       <c r="K122" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L122" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -4948,10 +5319,13 @@
         <v>1</v>
       </c>
       <c r="K123" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L123" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -4984,10 +5358,13 @@
         <v>1</v>
       </c>
       <c r="K124" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L124" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5020,10 +5397,13 @@
         <v>1</v>
       </c>
       <c r="K125" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L125" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5056,10 +5436,13 @@
         <v>1</v>
       </c>
       <c r="K126" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L126" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5092,10 +5475,13 @@
         <v>1</v>
       </c>
       <c r="K127" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L127" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5128,10 +5514,13 @@
         <v>1</v>
       </c>
       <c r="K128" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L128" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <f>A128+1</f>
         <v>127</v>
@@ -5164,10 +5553,13 @@
         <v>1</v>
       </c>
       <c r="K129" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L129" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <f t="shared" ref="A130:A141" si="4">A129+1</f>
         <v>128</v>
@@ -5200,10 +5592,13 @@
         <v>1</v>
       </c>
       <c r="K130" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L130" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -5236,10 +5631,13 @@
         <v>2</v>
       </c>
       <c r="K131" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L131" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -5272,10 +5670,13 @@
         <v>2</v>
       </c>
       <c r="K132" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L132" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -5308,10 +5709,13 @@
         <v>2</v>
       </c>
       <c r="K133" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L133" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -5344,10 +5748,13 @@
         <v>2</v>
       </c>
       <c r="K134" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L134" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <f>A134+1</f>
         <v>133</v>
@@ -5380,10 +5787,13 @@
         <v>2</v>
       </c>
       <c r="K135" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L135" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -5416,10 +5826,13 @@
         <v>2</v>
       </c>
       <c r="K136" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L136" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -5452,10 +5865,13 @@
         <v>2</v>
       </c>
       <c r="K137" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L137" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -5488,10 +5904,13 @@
         <v>2</v>
       </c>
       <c r="K138" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L138" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -5524,10 +5943,13 @@
         <v>2</v>
       </c>
       <c r="K139" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L139" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -5560,10 +5982,13 @@
         <v>2</v>
       </c>
       <c r="K140" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L140" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -5596,7 +6021,10 @@
         <v>2</v>
       </c>
       <c r="K141" s="11">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="L141" s="11">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5608,19 +6036,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="12" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5654,8 +6082,11 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -5679,10 +6110,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -5714,10 +6148,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L3" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5749,10 +6186,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L4" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -5784,10 +6224,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L5" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -5819,10 +6262,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -5854,10 +6300,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L7" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -5889,10 +6338,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L8" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -5924,10 +6376,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L9" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -5959,10 +6414,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L10" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -5994,10 +6452,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6029,10 +6490,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L12" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6064,10 +6528,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L13" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -6096,13 +6563,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L14" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -6134,10 +6604,13 @@
         <v>2</v>
       </c>
       <c r="K15" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L15" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -6169,10 +6642,13 @@
         <v>2</v>
       </c>
       <c r="K16" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L16" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -6204,10 +6680,13 @@
         <v>2</v>
       </c>
       <c r="K17" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L17" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -6239,10 +6718,13 @@
         <v>2</v>
       </c>
       <c r="K18" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L18" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -6274,10 +6756,13 @@
         <v>2</v>
       </c>
       <c r="K19" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L19" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -6306,13 +6791,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L20" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -6344,10 +6832,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L21" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -6379,10 +6870,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L22" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -6414,10 +6908,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L23" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -6449,10 +6946,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L24" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -6484,10 +6984,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L25" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -6519,10 +7022,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L26" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -6554,10 +7060,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L27" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -6586,13 +7095,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L28" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <f>A28+1</f>
         <v>26</v>
@@ -6625,10 +7137,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L29" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <f t="shared" ref="A30:A93" si="0">A29+1</f>
         <v>27</v>
@@ -6661,10 +7176,13 @@
         <v>2</v>
       </c>
       <c r="K30" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L30" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6697,10 +7215,13 @@
         <v>2</v>
       </c>
       <c r="K31" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L31" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6733,10 +7254,13 @@
         <v>2</v>
       </c>
       <c r="K32" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L32" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6769,10 +7293,13 @@
         <v>2</v>
       </c>
       <c r="K33" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L33" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6805,10 +7332,13 @@
         <v>2</v>
       </c>
       <c r="K34" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L34" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <f>A34+1</f>
         <v>32</v>
@@ -6841,10 +7371,13 @@
         <v>2</v>
       </c>
       <c r="K35" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L35" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6877,10 +7410,13 @@
         <v>2</v>
       </c>
       <c r="K36" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L36" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6913,10 +7449,13 @@
         <v>2</v>
       </c>
       <c r="K37" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L37" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6949,10 +7488,13 @@
         <v>2</v>
       </c>
       <c r="K38" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L38" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6985,10 +7527,13 @@
         <v>2</v>
       </c>
       <c r="K39" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L39" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7018,13 +7563,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L40" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7057,10 +7605,13 @@
         <v>1</v>
       </c>
       <c r="K41" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L41" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7093,10 +7644,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L42" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7129,10 +7683,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L43" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7165,10 +7722,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L44" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7201,10 +7761,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L45" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7237,10 +7800,13 @@
         <v>1</v>
       </c>
       <c r="K46" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L46" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7273,10 +7839,13 @@
         <v>1</v>
       </c>
       <c r="K47" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L47" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7309,10 +7878,13 @@
         <v>1</v>
       </c>
       <c r="K48" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L48" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7345,10 +7917,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L49" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7381,10 +7956,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L50" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7417,10 +7995,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L51" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7453,10 +8034,13 @@
         <v>1</v>
       </c>
       <c r="K52" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L52" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7489,10 +8073,13 @@
         <v>1</v>
       </c>
       <c r="K53" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L53" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7525,10 +8112,13 @@
         <v>1</v>
       </c>
       <c r="K54" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L54" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7561,10 +8151,13 @@
         <v>1</v>
       </c>
       <c r="K55" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L55" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7597,10 +8190,13 @@
         <v>1</v>
       </c>
       <c r="K56" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L56" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7633,10 +8229,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L57" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <f>A57+1</f>
         <v>55</v>
@@ -7666,13 +8265,16 @@
         <v>17</v>
       </c>
       <c r="J58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L58" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7705,10 +8307,13 @@
         <v>2</v>
       </c>
       <c r="K59" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L59" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7741,10 +8346,13 @@
         <v>2</v>
       </c>
       <c r="K60" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L60" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7777,10 +8385,13 @@
         <v>2</v>
       </c>
       <c r="K61" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L61" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7813,10 +8424,13 @@
         <v>2</v>
       </c>
       <c r="K62" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L62" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7849,10 +8463,13 @@
         <v>2</v>
       </c>
       <c r="K63" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L63" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <f>A63+1</f>
         <v>61</v>
@@ -7882,13 +8499,16 @@
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L64" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7921,10 +8541,13 @@
         <v>1</v>
       </c>
       <c r="K65" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L65" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7957,10 +8580,13 @@
         <v>1</v>
       </c>
       <c r="K66" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L66" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -7990,13 +8616,16 @@
         <v>0</v>
       </c>
       <c r="J67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L67" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8029,10 +8658,13 @@
         <v>2</v>
       </c>
       <c r="K68" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L68" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8065,10 +8697,13 @@
         <v>2</v>
       </c>
       <c r="K69" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L69" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -8101,10 +8736,13 @@
         <v>2</v>
       </c>
       <c r="K70" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L70" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -8137,10 +8775,13 @@
         <v>2</v>
       </c>
       <c r="K71" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L71" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8173,10 +8814,13 @@
         <v>2</v>
       </c>
       <c r="K72" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L72" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8209,10 +8853,13 @@
         <v>2</v>
       </c>
       <c r="K73" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L73" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -8245,10 +8892,13 @@
         <v>2</v>
       </c>
       <c r="K74" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L74" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -8281,10 +8931,13 @@
         <v>2</v>
       </c>
       <c r="K75" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L75" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -8317,10 +8970,13 @@
         <v>2</v>
       </c>
       <c r="K76" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L76" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -8353,10 +9009,13 @@
         <v>2</v>
       </c>
       <c r="K77" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L77" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -8389,10 +9048,13 @@
         <v>2</v>
       </c>
       <c r="K78" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L78" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -8425,10 +9087,13 @@
         <v>2</v>
       </c>
       <c r="K79" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L79" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -8461,10 +9126,13 @@
         <v>2</v>
       </c>
       <c r="K80" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L80" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -8494,13 +9162,16 @@
         <v>0</v>
       </c>
       <c r="J81" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L81" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <f>A81+1</f>
         <v>79</v>
@@ -8533,10 +9204,13 @@
         <v>1</v>
       </c>
       <c r="K82" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L82" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -8569,10 +9243,13 @@
         <v>1</v>
       </c>
       <c r="K83" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L83" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -8605,10 +9282,13 @@
         <v>1</v>
       </c>
       <c r="K84" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L84" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -8641,10 +9321,13 @@
         <v>1</v>
       </c>
       <c r="K85" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L85" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -8677,10 +9360,13 @@
         <v>1</v>
       </c>
       <c r="K86" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L86" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -8713,10 +9399,13 @@
         <v>1</v>
       </c>
       <c r="K87" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L87" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <f>A87+1</f>
         <v>85</v>
@@ -8749,10 +9438,13 @@
         <v>1</v>
       </c>
       <c r="K88" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L88" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -8785,10 +9477,13 @@
         <v>1</v>
       </c>
       <c r="K89" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L89" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -8821,10 +9516,13 @@
         <v>1</v>
       </c>
       <c r="K90" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L90" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -8857,10 +9555,13 @@
         <v>1</v>
       </c>
       <c r="K91" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L91" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -8893,10 +9594,13 @@
         <v>1</v>
       </c>
       <c r="K92" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L92" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -8929,10 +9633,13 @@
         <v>1</v>
       </c>
       <c r="K93" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L93" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <f t="shared" ref="A94" si="1">A93+1</f>
         <v>91</v>
@@ -8965,10 +9672,13 @@
         <v>1</v>
       </c>
       <c r="K94" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L94" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <f>A94+1</f>
         <v>92</v>
@@ -9001,10 +9711,13 @@
         <v>1</v>
       </c>
       <c r="K95" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L95" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <f t="shared" ref="A96:A116" si="2">A95+1</f>
         <v>93</v>
@@ -9037,10 +9750,13 @@
         <v>1</v>
       </c>
       <c r="K96" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L96" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -9073,10 +9789,13 @@
         <v>1</v>
       </c>
       <c r="K97" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L97" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -9109,10 +9828,13 @@
         <v>1</v>
       </c>
       <c r="K98" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L98" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -9142,13 +9864,16 @@
         <v>61</v>
       </c>
       <c r="J99" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L99" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -9181,10 +9906,13 @@
         <v>2</v>
       </c>
       <c r="K100" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L100" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <f>A100+1</f>
         <v>98</v>
@@ -9217,10 +9945,13 @@
         <v>2</v>
       </c>
       <c r="K101" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L101" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -9253,10 +9984,13 @@
         <v>2</v>
       </c>
       <c r="K102" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L102" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -9289,10 +10023,13 @@
         <v>2</v>
       </c>
       <c r="K103" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L103" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -9325,10 +10062,13 @@
         <v>2</v>
       </c>
       <c r="K104" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L104" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -9361,10 +10101,13 @@
         <v>2</v>
       </c>
       <c r="K105" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L105" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -9397,10 +10140,13 @@
         <v>2</v>
       </c>
       <c r="K106" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L106" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -9433,10 +10179,13 @@
         <v>2</v>
       </c>
       <c r="K107" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L107" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -9469,10 +10218,13 @@
         <v>2</v>
       </c>
       <c r="K108" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L108" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -9505,10 +10257,13 @@
         <v>2</v>
       </c>
       <c r="K109" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L109" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -9541,10 +10296,13 @@
         <v>2</v>
       </c>
       <c r="K110" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L110" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -9577,10 +10335,13 @@
         <v>2</v>
       </c>
       <c r="K111" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L111" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -9613,10 +10374,13 @@
         <v>2</v>
       </c>
       <c r="K112" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L112" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -9649,10 +10413,13 @@
         <v>2</v>
       </c>
       <c r="K113" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L113" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -9685,10 +10452,13 @@
         <v>2</v>
       </c>
       <c r="K114" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L114" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -9721,10 +10491,13 @@
         <v>2</v>
       </c>
       <c r="K115" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L115" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -9754,13 +10527,16 @@
         <v>0</v>
       </c>
       <c r="J116" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L116" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <f>A116+1</f>
         <v>114</v>
@@ -9793,10 +10569,13 @@
         <v>1</v>
       </c>
       <c r="K117" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L117" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <f t="shared" ref="A118:A129" si="3">A117+1</f>
         <v>115</v>
@@ -9829,10 +10608,13 @@
         <v>1</v>
       </c>
       <c r="K118" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L118" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -9865,10 +10647,13 @@
         <v>1</v>
       </c>
       <c r="K119" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L119" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -9901,10 +10686,13 @@
         <v>1</v>
       </c>
       <c r="K120" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L120" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -9937,10 +10725,13 @@
         <v>1</v>
       </c>
       <c r="K121" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L121" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -9973,10 +10764,13 @@
         <v>1</v>
       </c>
       <c r="K122" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L122" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <f>A122+1</f>
         <v>120</v>
@@ -10009,10 +10803,13 @@
         <v>1</v>
       </c>
       <c r="K123" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L123" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -10045,10 +10842,13 @@
         <v>1</v>
       </c>
       <c r="K124" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L124" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -10081,10 +10881,13 @@
         <v>1</v>
       </c>
       <c r="K125" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L125" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -10117,10 +10920,13 @@
         <v>1</v>
       </c>
       <c r="K126" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L126" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -10153,10 +10959,13 @@
         <v>1</v>
       </c>
       <c r="K127" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L127" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -10189,10 +10998,13 @@
         <v>1</v>
       </c>
       <c r="K128" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L128" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -10225,10 +11037,13 @@
         <v>1</v>
       </c>
       <c r="K129" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L129" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <f>A129+1</f>
         <v>127</v>
@@ -10261,10 +11076,13 @@
         <v>1</v>
       </c>
       <c r="K130" s="11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L130" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <f t="shared" ref="A131:A142" si="4">A130+1</f>
         <v>128</v>
@@ -10294,13 +11112,16 @@
         <v>100</v>
       </c>
       <c r="J131" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="L131" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -10333,10 +11154,13 @@
         <v>2</v>
       </c>
       <c r="K132" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L132" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -10369,10 +11193,13 @@
         <v>2</v>
       </c>
       <c r="K133" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L133" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -10405,10 +11232,13 @@
         <v>2</v>
       </c>
       <c r="K134" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L134" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -10441,10 +11271,13 @@
         <v>2</v>
       </c>
       <c r="K135" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L135" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <f>A135+1</f>
         <v>133</v>
@@ -10477,10 +11310,13 @@
         <v>2</v>
       </c>
       <c r="K136" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L136" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -10513,10 +11349,13 @@
         <v>2</v>
       </c>
       <c r="K137" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L137" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -10549,10 +11388,13 @@
         <v>2</v>
       </c>
       <c r="K138" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L138" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -10585,10 +11427,13 @@
         <v>2</v>
       </c>
       <c r="K139" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L139" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -10621,10 +11466,13 @@
         <v>2</v>
       </c>
       <c r="K140" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L140" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -10657,10 +11505,13 @@
         <v>2</v>
       </c>
       <c r="K141" s="11">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>120</v>
+      </c>
+      <c r="L141" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -10688,6 +11539,15 @@
       </c>
       <c r="I142" s="4">
         <v>0</v>
+      </c>
+      <c r="J142" s="4">
+        <v>2</v>
+      </c>
+      <c r="K142" s="11">
+        <v>120</v>
+      </c>
+      <c r="L142" s="11">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Input data/Task_list.xlsx
+++ b/Input data/Task_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/PycharmProjects/ACO_Example/Input data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7B2EF-A41F-2F40-883B-0C5B5221802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DE909-4B50-3646-8FB8-1F00EF5224E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="17500" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
@@ -105,9 +105,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="178" formatCode="0.0;[Red]0.0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -177,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +213,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -543,7 +547,7 @@
     <col min="12" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -624,8 +628,11 @@
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -665,8 +672,11 @@
       <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -706,8 +716,11 @@
       <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -744,8 +757,11 @@
       <c r="L5" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -782,8 +798,11 @@
       <c r="L6" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -820,8 +839,11 @@
       <c r="L7" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -858,8 +880,11 @@
       <c r="L8" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -896,8 +921,11 @@
       <c r="L9" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -934,8 +962,11 @@
       <c r="L10" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -972,8 +1003,11 @@
       <c r="L11" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1010,8 +1044,11 @@
       <c r="L12" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1048,8 +1085,11 @@
       <c r="L13" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1086,8 +1126,11 @@
       <c r="L14" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1124,8 +1167,11 @@
       <c r="L15" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1162,8 +1208,11 @@
       <c r="L16" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1200,8 +1249,11 @@
       <c r="L17" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1238,8 +1290,11 @@
       <c r="L18" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1276,8 +1331,11 @@
       <c r="L19" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1314,8 +1372,11 @@
       <c r="L20" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1352,8 +1413,11 @@
       <c r="L21" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1390,8 +1454,11 @@
       <c r="L22" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1428,8 +1495,11 @@
       <c r="L23" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1466,8 +1536,11 @@
       <c r="L24" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1504,8 +1577,11 @@
       <c r="L25" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1542,8 +1618,11 @@
       <c r="L26" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1580,8 +1659,11 @@
       <c r="L27" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4">
         <f>A27+1</f>
         <v>26</v>
@@ -1619,8 +1701,11 @@
       <c r="L28" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4">
         <f t="shared" ref="A29:A92" si="0">A28+1</f>
         <v>27</v>
@@ -1658,8 +1743,11 @@
       <c r="L29" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1697,8 +1785,11 @@
       <c r="L30" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1736,8 +1827,11 @@
       <c r="L31" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1775,8 +1869,11 @@
       <c r="L32" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1814,8 +1911,11 @@
       <c r="L33" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4">
         <f>A33+1</f>
         <v>32</v>
@@ -1853,8 +1953,11 @@
       <c r="L34" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1892,8 +1995,11 @@
       <c r="L35" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1931,8 +2037,11 @@
       <c r="L36" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1970,8 +2079,11 @@
       <c r="L37" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2009,8 +2121,11 @@
       <c r="L38" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2048,8 +2163,11 @@
       <c r="L39" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2087,8 +2205,11 @@
       <c r="L40" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="O40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2126,8 +2247,11 @@
       <c r="L41" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="O41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2165,8 +2289,11 @@
       <c r="L42" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="O42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2204,8 +2331,11 @@
       <c r="L43" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="O43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2243,8 +2373,11 @@
       <c r="L44" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2282,8 +2415,11 @@
       <c r="L45" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2321,8 +2457,11 @@
       <c r="L46" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2360,8 +2499,11 @@
       <c r="L47" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2399,8 +2541,11 @@
       <c r="L48" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="O48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2438,8 +2583,11 @@
       <c r="L49" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="O49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2477,8 +2625,11 @@
       <c r="L50" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2516,8 +2667,11 @@
       <c r="L51" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="O51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2555,8 +2709,11 @@
       <c r="L52" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="O52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2594,8 +2751,11 @@
       <c r="L53" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="O53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2633,8 +2793,11 @@
       <c r="L54" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="O54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2672,8 +2835,11 @@
       <c r="L55" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="O55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2711,8 +2877,11 @@
       <c r="L56" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="O56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4">
         <f>A56+1</f>
         <v>55</v>
@@ -2750,8 +2919,11 @@
       <c r="L57" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="O57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2789,8 +2961,11 @@
       <c r="L58" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2828,8 +3003,11 @@
       <c r="L59" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2867,8 +3045,11 @@
       <c r="L60" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2906,8 +3087,11 @@
       <c r="L61" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2945,8 +3129,11 @@
       <c r="L62" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="4">
         <f>A62+1</f>
         <v>61</v>
@@ -2984,8 +3171,11 @@
       <c r="L63" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3023,8 +3213,11 @@
       <c r="L64" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="O64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3062,8 +3255,11 @@
       <c r="L65" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="O65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3101,8 +3297,11 @@
       <c r="L66" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="O66">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3140,8 +3339,11 @@
       <c r="L67" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3179,8 +3381,11 @@
       <c r="L68" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3218,8 +3423,11 @@
       <c r="L69" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3257,8 +3465,11 @@
       <c r="L70" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3296,8 +3507,11 @@
       <c r="L71" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3335,8 +3549,11 @@
       <c r="L72" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3374,8 +3591,11 @@
       <c r="L73" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3413,8 +3633,11 @@
       <c r="L74" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3452,8 +3675,11 @@
       <c r="L75" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3491,8 +3717,11 @@
       <c r="L76" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -3530,8 +3759,11 @@
       <c r="L77" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -3569,8 +3801,11 @@
       <c r="L78" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -3608,8 +3843,11 @@
       <c r="L79" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -3647,8 +3885,11 @@
       <c r="L80" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="4">
         <f>A80+1</f>
         <v>79</v>
@@ -3686,8 +3927,11 @@
       <c r="L81" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -3725,8 +3969,11 @@
       <c r="L82" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="O82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -3764,8 +4011,11 @@
       <c r="L83" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="O83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -3803,8 +4053,11 @@
       <c r="L84" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="O84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -3842,8 +4095,11 @@
       <c r="L85" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -3881,8 +4137,11 @@
       <c r="L86" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="O86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="4">
         <f>A86+1</f>
         <v>85</v>
@@ -3920,8 +4179,11 @@
       <c r="L87" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="O87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -3959,8 +4221,11 @@
       <c r="L88" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="O88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -3998,8 +4263,11 @@
       <c r="L89" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="O89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -4037,8 +4305,11 @@
       <c r="L90" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="O90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -4076,8 +4347,11 @@
       <c r="L91" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="O91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -4115,8 +4389,11 @@
       <c r="L92" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="4">
         <f t="shared" ref="A93" si="1">A92+1</f>
         <v>91</v>
@@ -4154,8 +4431,11 @@
       <c r="L93" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="O93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="4">
         <f>A93+1</f>
         <v>92</v>
@@ -4193,8 +4473,11 @@
       <c r="L94" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="O94">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="4">
         <f t="shared" ref="A95:A115" si="2">A94+1</f>
         <v>93</v>
@@ -4232,8 +4515,11 @@
       <c r="L95" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="O95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -4271,8 +4557,11 @@
       <c r="L96" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -4310,8 +4599,11 @@
       <c r="L97" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="O97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -4349,8 +4641,11 @@
       <c r="L98" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="O98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -4388,8 +4683,11 @@
       <c r="L99" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="4">
         <f>A99+1</f>
         <v>98</v>
@@ -4427,8 +4725,11 @@
       <c r="L100" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -4466,8 +4767,11 @@
       <c r="L101" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -4505,8 +4809,11 @@
       <c r="L102" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -4544,8 +4851,11 @@
       <c r="L103" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -4583,8 +4893,11 @@
       <c r="L104" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -4622,8 +4935,11 @@
       <c r="L105" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -4661,8 +4977,11 @@
       <c r="L106" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -4700,8 +5019,11 @@
       <c r="L107" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -4739,8 +5061,11 @@
       <c r="L108" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -4778,8 +5103,11 @@
       <c r="L109" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -4817,8 +5145,11 @@
       <c r="L110" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -4856,8 +5187,11 @@
       <c r="L111" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -4895,8 +5229,11 @@
       <c r="L112" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -4934,8 +5271,11 @@
       <c r="L113" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -4973,8 +5313,11 @@
       <c r="L114" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -5012,8 +5355,11 @@
       <c r="L115" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="4">
         <f>A115+1</f>
         <v>114</v>
@@ -5051,8 +5397,11 @@
       <c r="L116" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="O116">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="4">
         <f t="shared" ref="A117:A128" si="3">A116+1</f>
         <v>115</v>
@@ -5090,8 +5439,11 @@
       <c r="L117" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="O117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -5129,8 +5481,11 @@
       <c r="L118" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="O118">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -5168,8 +5523,11 @@
       <c r="L119" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="O119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -5207,8 +5565,11 @@
       <c r="L120" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="O120">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -5246,8 +5607,11 @@
       <c r="L121" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="O121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="4">
         <f>A121+1</f>
         <v>120</v>
@@ -5285,8 +5649,11 @@
       <c r="L122" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="O122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -5324,8 +5691,11 @@
       <c r="L123" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="O123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -5363,8 +5733,11 @@
       <c r="L124" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="O124">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5402,8 +5775,11 @@
       <c r="L125" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="O125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5441,8 +5817,11 @@
       <c r="L126" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="O126">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5480,8 +5859,11 @@
       <c r="L127" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="O127">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5519,8 +5901,11 @@
       <c r="L128" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="O128">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="4">
         <f>A128+1</f>
         <v>127</v>
@@ -5558,8 +5943,11 @@
       <c r="L129" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="O129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="4">
         <f t="shared" ref="A130:A141" si="4">A129+1</f>
         <v>128</v>
@@ -5597,8 +5985,11 @@
       <c r="L130" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="O130">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -5636,8 +6027,11 @@
       <c r="L131" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -5675,8 +6069,11 @@
       <c r="L132" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -5714,8 +6111,11 @@
       <c r="L133" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -5753,8 +6153,11 @@
       <c r="L134" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="4">
         <f>A134+1</f>
         <v>133</v>
@@ -5792,8 +6195,11 @@
       <c r="L135" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -5831,8 +6237,11 @@
       <c r="L136" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -5870,8 +6279,11 @@
       <c r="L137" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -5909,8 +6321,11 @@
       <c r="L138" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -5948,8 +6363,11 @@
       <c r="L139" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -5987,8 +6405,11 @@
       <c r="L140" s="11">
         <v>120</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -6025,6 +6446,9 @@
       </c>
       <c r="L141" s="11">
         <v>120</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6036,10 +6460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G128" workbookViewId="0">
+      <selection activeCell="L162" sqref="L162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6048,7 +6472,7 @@
     <col min="11" max="12" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -6106,7 +6530,7 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="12">
         <v>1</v>
       </c>
       <c r="K2" s="11">
@@ -6116,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -6144,17 +6568,20 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>35</v>
-      </c>
-      <c r="L3" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>90</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -6182,17 +6609,20 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>35</v>
-      </c>
-      <c r="L4" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -6220,17 +6650,20 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>35</v>
-      </c>
-      <c r="L5" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>90</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -6258,17 +6691,20 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>35</v>
-      </c>
-      <c r="L6" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>90</v>
+      </c>
+      <c r="O6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -6296,17 +6732,20 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>35</v>
-      </c>
-      <c r="L7" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6334,17 +6773,20 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>35</v>
-      </c>
-      <c r="L8" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+      <c r="O8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -6372,17 +6814,20 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>35</v>
-      </c>
-      <c r="L9" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>90</v>
+      </c>
+      <c r="O9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -6410,17 +6855,20 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>35</v>
-      </c>
-      <c r="L10" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
+      </c>
+      <c r="O10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -6448,17 +6896,20 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>35</v>
-      </c>
-      <c r="L11" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6486,17 +6937,20 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>35</v>
-      </c>
-      <c r="L12" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>90</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6524,17 +6978,20 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11">
-        <v>35</v>
-      </c>
-      <c r="L13" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>90</v>
+      </c>
+      <c r="O13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -6562,17 +7019,20 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
-        <v>35</v>
-      </c>
-      <c r="L14" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -6600,17 +7060,20 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="11">
-        <v>120</v>
-      </c>
-      <c r="L15" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>240</v>
+      </c>
+      <c r="L15">
+        <v>240</v>
+      </c>
+      <c r="O15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -6638,17 +7101,20 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="11">
-        <v>120</v>
-      </c>
-      <c r="L16" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>240</v>
+      </c>
+      <c r="L16">
+        <v>240</v>
+      </c>
+      <c r="O16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -6676,17 +7142,20 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="11">
-        <v>120</v>
-      </c>
-      <c r="L17" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>240</v>
+      </c>
+      <c r="L17">
+        <v>240</v>
+      </c>
+      <c r="O17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -6714,17 +7183,20 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="11">
-        <v>120</v>
-      </c>
-      <c r="L18" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>240</v>
+      </c>
+      <c r="L18">
+        <v>240</v>
+      </c>
+      <c r="O18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -6752,17 +7224,20 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="11">
-        <v>120</v>
-      </c>
-      <c r="L19" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>240</v>
+      </c>
+      <c r="L19">
+        <v>240</v>
+      </c>
+      <c r="O19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -6790,17 +7265,20 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="4">
-        <v>2</v>
-      </c>
-      <c r="K20" s="11">
-        <v>120</v>
-      </c>
-      <c r="L20" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>240</v>
+      </c>
+      <c r="L20">
+        <v>240</v>
+      </c>
+      <c r="O20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -6828,17 +7306,20 @@
       <c r="I21" s="6">
         <v>0</v>
       </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11">
-        <v>35</v>
-      </c>
-      <c r="L21" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="J21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+      <c r="O21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -6866,17 +7347,20 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11">
-        <v>35</v>
-      </c>
-      <c r="L22" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -6904,17 +7388,20 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
-        <v>35</v>
-      </c>
-      <c r="L23" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="J23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>90</v>
+      </c>
+      <c r="O23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -6942,17 +7429,20 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
-        <v>35</v>
-      </c>
-      <c r="L24" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="J24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>90</v>
+      </c>
+      <c r="O24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -6980,17 +7470,20 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
-        <v>35</v>
-      </c>
-      <c r="L25" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="J25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>90</v>
+      </c>
+      <c r="O25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -7018,17 +7511,20 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>35</v>
-      </c>
-      <c r="L26" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="J26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>90</v>
+      </c>
+      <c r="O26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -7056,17 +7552,20 @@
       <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
-        <v>35</v>
-      </c>
-      <c r="L27" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="J27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>90</v>
+      </c>
+      <c r="O27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -7094,17 +7593,20 @@
       <c r="I28" s="6">
         <v>0</v>
       </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11">
-        <v>35</v>
-      </c>
-      <c r="L28" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="J28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>90</v>
+      </c>
+      <c r="O28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4">
         <f>A28+1</f>
         <v>26</v>
@@ -7133,17 +7635,20 @@
       <c r="I29" s="6">
         <v>0</v>
       </c>
-      <c r="J29" s="4">
-        <v>2</v>
-      </c>
-      <c r="K29" s="11">
-        <v>120</v>
-      </c>
-      <c r="L29" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>240</v>
+      </c>
+      <c r="L29">
+        <v>240</v>
+      </c>
+      <c r="O29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4">
         <f t="shared" ref="A30:A93" si="0">A29+1</f>
         <v>27</v>
@@ -7172,17 +7677,20 @@
       <c r="I30" s="6">
         <v>0</v>
       </c>
-      <c r="J30" s="4">
-        <v>2</v>
-      </c>
-      <c r="K30" s="11">
-        <v>120</v>
-      </c>
-      <c r="L30" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="J30" s="12">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>240</v>
+      </c>
+      <c r="L30">
+        <v>240</v>
+      </c>
+      <c r="O30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7211,17 +7719,20 @@
       <c r="I31" s="6">
         <v>0</v>
       </c>
-      <c r="J31" s="4">
-        <v>2</v>
-      </c>
-      <c r="K31" s="11">
-        <v>120</v>
-      </c>
-      <c r="L31" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="J31" s="12">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>240</v>
+      </c>
+      <c r="L31">
+        <v>240</v>
+      </c>
+      <c r="O31">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7250,17 +7761,20 @@
       <c r="I32" s="6">
         <v>0</v>
       </c>
-      <c r="J32" s="4">
-        <v>2</v>
-      </c>
-      <c r="K32" s="11">
-        <v>120</v>
-      </c>
-      <c r="L32" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="J32" s="12">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>240</v>
+      </c>
+      <c r="L32">
+        <v>240</v>
+      </c>
+      <c r="O32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7289,17 +7803,20 @@
       <c r="I33" s="6">
         <v>0</v>
       </c>
-      <c r="J33" s="4">
-        <v>2</v>
-      </c>
-      <c r="K33" s="11">
-        <v>120</v>
-      </c>
-      <c r="L33" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="J33" s="12">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>240</v>
+      </c>
+      <c r="L33">
+        <v>240</v>
+      </c>
+      <c r="O33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7328,17 +7845,20 @@
       <c r="I34" s="6">
         <v>0</v>
       </c>
-      <c r="J34" s="4">
-        <v>2</v>
-      </c>
-      <c r="K34" s="11">
-        <v>120</v>
-      </c>
-      <c r="L34" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>240</v>
+      </c>
+      <c r="L34">
+        <v>240</v>
+      </c>
+      <c r="O34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="4">
         <f>A34+1</f>
         <v>32</v>
@@ -7367,17 +7887,20 @@
       <c r="I35" s="6">
         <v>0</v>
       </c>
-      <c r="J35" s="4">
-        <v>2</v>
-      </c>
-      <c r="K35" s="11">
-        <v>120</v>
-      </c>
-      <c r="L35" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>240</v>
+      </c>
+      <c r="L35">
+        <v>240</v>
+      </c>
+      <c r="O35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7406,17 +7929,20 @@
       <c r="I36" s="6">
         <v>0</v>
       </c>
-      <c r="J36" s="4">
-        <v>2</v>
-      </c>
-      <c r="K36" s="11">
-        <v>120</v>
-      </c>
-      <c r="L36" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="J36" s="12">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>240</v>
+      </c>
+      <c r="L36">
+        <v>240</v>
+      </c>
+      <c r="O36">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7445,17 +7971,20 @@
       <c r="I37" s="6">
         <v>0</v>
       </c>
-      <c r="J37" s="4">
-        <v>2</v>
-      </c>
-      <c r="K37" s="11">
-        <v>120</v>
-      </c>
-      <c r="L37" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="J37" s="12">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>240</v>
+      </c>
+      <c r="L37">
+        <v>240</v>
+      </c>
+      <c r="O37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7484,17 +8013,20 @@
       <c r="I38" s="6">
         <v>0</v>
       </c>
-      <c r="J38" s="4">
-        <v>2</v>
-      </c>
-      <c r="K38" s="11">
-        <v>120</v>
-      </c>
-      <c r="L38" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="J38" s="12">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>240</v>
+      </c>
+      <c r="L38">
+        <v>240</v>
+      </c>
+      <c r="O38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7523,17 +8055,20 @@
       <c r="I39" s="6">
         <v>0</v>
       </c>
-      <c r="J39" s="4">
-        <v>2</v>
-      </c>
-      <c r="K39" s="11">
-        <v>120</v>
-      </c>
-      <c r="L39" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="J39" s="12">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>240</v>
+      </c>
+      <c r="L39">
+        <v>240</v>
+      </c>
+      <c r="O39">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7562,17 +8097,20 @@
       <c r="I40" s="6">
         <v>0</v>
       </c>
-      <c r="J40" s="4">
-        <v>2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>120</v>
-      </c>
-      <c r="L40" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="J40" s="12">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>240</v>
+      </c>
+      <c r="L40">
+        <v>240</v>
+      </c>
+      <c r="O40">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7601,17 +8139,20 @@
       <c r="I41" s="4">
         <v>0</v>
       </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11">
-        <v>35</v>
-      </c>
-      <c r="L41" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="J41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>90</v>
+      </c>
+      <c r="O41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7640,17 +8181,20 @@
       <c r="I42" s="4">
         <v>0</v>
       </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="11">
-        <v>35</v>
-      </c>
-      <c r="L42" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="J42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>90</v>
+      </c>
+      <c r="O42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7679,17 +8223,20 @@
       <c r="I43" s="4">
         <v>0</v>
       </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11">
-        <v>35</v>
-      </c>
-      <c r="L43" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="J43" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>90</v>
+      </c>
+      <c r="O43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7718,17 +8265,20 @@
       <c r="I44" s="4">
         <v>0</v>
       </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11">
-        <v>35</v>
-      </c>
-      <c r="L44" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="J44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>90</v>
+      </c>
+      <c r="O44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7757,17 +8307,20 @@
       <c r="I45" s="4">
         <v>0</v>
       </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11">
-        <v>35</v>
-      </c>
-      <c r="L45" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="J45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>90</v>
+      </c>
+      <c r="O45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7796,17 +8349,20 @@
       <c r="I46" s="4">
         <v>0</v>
       </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11">
-        <v>35</v>
-      </c>
-      <c r="L46" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="J46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>90</v>
+      </c>
+      <c r="O46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7835,17 +8391,20 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11">
-        <v>35</v>
-      </c>
-      <c r="L47" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="J47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>90</v>
+      </c>
+      <c r="O47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7874,17 +8433,20 @@
       <c r="I48" s="4">
         <v>0</v>
       </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11">
-        <v>35</v>
-      </c>
-      <c r="L48" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="J48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>90</v>
+      </c>
+      <c r="O48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7913,17 +8475,20 @@
       <c r="I49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11">
-        <v>35</v>
-      </c>
-      <c r="L49" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="J49" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>90</v>
+      </c>
+      <c r="O49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7952,17 +8517,20 @@
       <c r="I50" s="4">
         <v>0</v>
       </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="11">
-        <v>35</v>
-      </c>
-      <c r="L50" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="J50" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>90</v>
+      </c>
+      <c r="O50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7991,17 +8559,20 @@
       <c r="I51" s="4">
         <v>0</v>
       </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="11">
-        <v>35</v>
-      </c>
-      <c r="L51" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="J51" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>90</v>
+      </c>
+      <c r="O51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -8030,17 +8601,20 @@
       <c r="I52" s="4">
         <v>0</v>
       </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="11">
-        <v>35</v>
-      </c>
-      <c r="L52" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="J52" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>90</v>
+      </c>
+      <c r="O52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -8069,17 +8643,20 @@
       <c r="I53" s="4">
         <v>12</v>
       </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="11">
-        <v>35</v>
-      </c>
-      <c r="L53" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="J53" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>90</v>
+      </c>
+      <c r="O53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -8108,17 +8685,20 @@
       <c r="I54" s="4">
         <v>13</v>
       </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="11">
-        <v>35</v>
-      </c>
-      <c r="L54" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="J54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>90</v>
+      </c>
+      <c r="O54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -8147,17 +8727,20 @@
       <c r="I55" s="4">
         <v>14</v>
       </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="11">
-        <v>35</v>
-      </c>
-      <c r="L55" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="J55" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>90</v>
+      </c>
+      <c r="O55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8186,17 +8769,20 @@
       <c r="I56" s="4">
         <v>15</v>
       </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="11">
-        <v>35</v>
-      </c>
-      <c r="L56" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="J56" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>90</v>
+      </c>
+      <c r="O56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8225,17 +8811,20 @@
       <c r="I57" s="4">
         <v>16</v>
       </c>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="K57" s="11">
-        <v>35</v>
-      </c>
-      <c r="L57" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="J57" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>90</v>
+      </c>
+      <c r="O57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4">
         <f>A57+1</f>
         <v>55</v>
@@ -8264,17 +8853,20 @@
       <c r="I58" s="4">
         <v>17</v>
       </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="11">
-        <v>35</v>
-      </c>
-      <c r="L58" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="J58" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>90</v>
+      </c>
+      <c r="O58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8303,17 +8895,20 @@
       <c r="I59" s="4">
         <v>0</v>
       </c>
-      <c r="J59" s="4">
-        <v>2</v>
-      </c>
-      <c r="K59" s="11">
-        <v>120</v>
-      </c>
-      <c r="L59" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="J59" s="12">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>240</v>
+      </c>
+      <c r="L59">
+        <v>240</v>
+      </c>
+      <c r="O59">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8342,17 +8937,20 @@
       <c r="I60" s="4">
         <v>0</v>
       </c>
-      <c r="J60" s="4">
-        <v>2</v>
-      </c>
-      <c r="K60" s="11">
-        <v>120</v>
-      </c>
-      <c r="L60" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="J60" s="12">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>240</v>
+      </c>
+      <c r="L60">
+        <v>240</v>
+      </c>
+      <c r="O60">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8381,17 +8979,20 @@
       <c r="I61" s="4">
         <v>0</v>
       </c>
-      <c r="J61" s="4">
-        <v>2</v>
-      </c>
-      <c r="K61" s="11">
-        <v>120</v>
-      </c>
-      <c r="L61" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="J61" s="12">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>240</v>
+      </c>
+      <c r="L61">
+        <v>240</v>
+      </c>
+      <c r="O61">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8420,17 +9021,20 @@
       <c r="I62" s="4">
         <v>0</v>
       </c>
-      <c r="J62" s="4">
-        <v>2</v>
-      </c>
-      <c r="K62" s="11">
-        <v>120</v>
-      </c>
-      <c r="L62" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>240</v>
+      </c>
+      <c r="L62">
+        <v>240</v>
+      </c>
+      <c r="O62">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8459,17 +9063,20 @@
       <c r="I63" s="4">
         <v>0</v>
       </c>
-      <c r="J63" s="4">
-        <v>2</v>
-      </c>
-      <c r="K63" s="11">
-        <v>120</v>
-      </c>
-      <c r="L63" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="J63" s="12">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>240</v>
+      </c>
+      <c r="L63">
+        <v>240</v>
+      </c>
+      <c r="O63">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="4">
         <f>A63+1</f>
         <v>61</v>
@@ -8498,17 +9105,20 @@
       <c r="I64" s="4">
         <v>0</v>
       </c>
-      <c r="J64" s="4">
-        <v>2</v>
-      </c>
-      <c r="K64" s="11">
-        <v>120</v>
-      </c>
-      <c r="L64" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="J64" s="12">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>240</v>
+      </c>
+      <c r="L64">
+        <v>240</v>
+      </c>
+      <c r="O64">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8537,17 +9147,20 @@
       <c r="I65" s="4">
         <v>0</v>
       </c>
-      <c r="J65" s="4">
-        <v>1</v>
-      </c>
-      <c r="K65" s="11">
-        <v>35</v>
-      </c>
-      <c r="L65" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="J65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>90</v>
+      </c>
+      <c r="O65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8576,17 +9189,20 @@
       <c r="I66" s="4">
         <v>0</v>
       </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="11">
-        <v>35</v>
-      </c>
-      <c r="L66" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="J66" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>90</v>
+      </c>
+      <c r="O66">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8615,17 +9231,20 @@
       <c r="I67" s="4">
         <v>0</v>
       </c>
-      <c r="J67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="11">
-        <v>35</v>
-      </c>
-      <c r="L67" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="J67" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>90</v>
+      </c>
+      <c r="O67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8654,17 +9273,20 @@
       <c r="I68" s="4">
         <v>0</v>
       </c>
-      <c r="J68" s="4">
-        <v>2</v>
-      </c>
-      <c r="K68" s="11">
-        <v>120</v>
-      </c>
-      <c r="L68" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>240</v>
+      </c>
+      <c r="L68">
+        <v>240</v>
+      </c>
+      <c r="O68">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8693,17 +9315,20 @@
       <c r="I69" s="4">
         <v>0</v>
       </c>
-      <c r="J69" s="4">
-        <v>2</v>
-      </c>
-      <c r="K69" s="11">
-        <v>120</v>
-      </c>
-      <c r="L69" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>240</v>
+      </c>
+      <c r="L69">
+        <v>240</v>
+      </c>
+      <c r="O69">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -8732,17 +9357,20 @@
       <c r="I70" s="4">
         <v>0</v>
       </c>
-      <c r="J70" s="4">
-        <v>2</v>
-      </c>
-      <c r="K70" s="11">
-        <v>120</v>
-      </c>
-      <c r="L70" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>240</v>
+      </c>
+      <c r="L70">
+        <v>240</v>
+      </c>
+      <c r="O70">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -8771,17 +9399,20 @@
       <c r="I71" s="4">
         <v>0</v>
       </c>
-      <c r="J71" s="4">
-        <v>2</v>
-      </c>
-      <c r="K71" s="11">
-        <v>120</v>
-      </c>
-      <c r="L71" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>240</v>
+      </c>
+      <c r="L71">
+        <v>240</v>
+      </c>
+      <c r="O71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8810,17 +9441,20 @@
       <c r="I72" s="4">
         <v>0</v>
       </c>
-      <c r="J72" s="4">
-        <v>2</v>
-      </c>
-      <c r="K72" s="11">
-        <v>120</v>
-      </c>
-      <c r="L72" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="J72" s="12">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>240</v>
+      </c>
+      <c r="L72">
+        <v>240</v>
+      </c>
+      <c r="O72">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8849,17 +9483,20 @@
       <c r="I73" s="4">
         <v>0</v>
       </c>
-      <c r="J73" s="4">
-        <v>2</v>
-      </c>
-      <c r="K73" s="11">
-        <v>120</v>
-      </c>
-      <c r="L73" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="J73" s="12">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>240</v>
+      </c>
+      <c r="L73">
+        <v>240</v>
+      </c>
+      <c r="O73">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -8888,17 +9525,20 @@
       <c r="I74" s="4">
         <v>0</v>
       </c>
-      <c r="J74" s="4">
-        <v>2</v>
-      </c>
-      <c r="K74" s="11">
-        <v>120</v>
-      </c>
-      <c r="L74" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="J74" s="12">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>240</v>
+      </c>
+      <c r="L74">
+        <v>240</v>
+      </c>
+      <c r="O74">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -8927,17 +9567,20 @@
       <c r="I75" s="4">
         <v>0</v>
       </c>
-      <c r="J75" s="4">
-        <v>2</v>
-      </c>
-      <c r="K75" s="11">
-        <v>120</v>
-      </c>
-      <c r="L75" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="J75" s="12">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>240</v>
+      </c>
+      <c r="L75">
+        <v>240</v>
+      </c>
+      <c r="O75">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -8966,17 +9609,20 @@
       <c r="I76" s="4">
         <v>0</v>
       </c>
-      <c r="J76" s="4">
-        <v>2</v>
-      </c>
-      <c r="K76" s="11">
-        <v>120</v>
-      </c>
-      <c r="L76" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="J76" s="12">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>240</v>
+      </c>
+      <c r="L76">
+        <v>240</v>
+      </c>
+      <c r="O76">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -9005,17 +9651,20 @@
       <c r="I77" s="4">
         <v>0</v>
       </c>
-      <c r="J77" s="4">
-        <v>2</v>
-      </c>
-      <c r="K77" s="11">
-        <v>120</v>
-      </c>
-      <c r="L77" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="J77" s="12">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>240</v>
+      </c>
+      <c r="L77">
+        <v>240</v>
+      </c>
+      <c r="O77">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -9044,17 +9693,20 @@
       <c r="I78" s="4">
         <v>0</v>
       </c>
-      <c r="J78" s="4">
-        <v>2</v>
-      </c>
-      <c r="K78" s="11">
-        <v>120</v>
-      </c>
-      <c r="L78" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="J78" s="12">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>240</v>
+      </c>
+      <c r="L78">
+        <v>240</v>
+      </c>
+      <c r="O78">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -9083,17 +9735,20 @@
       <c r="I79" s="4">
         <v>0</v>
       </c>
-      <c r="J79" s="4">
-        <v>2</v>
-      </c>
-      <c r="K79" s="11">
-        <v>120</v>
-      </c>
-      <c r="L79" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="J79" s="12">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>240</v>
+      </c>
+      <c r="L79">
+        <v>240</v>
+      </c>
+      <c r="O79">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -9122,17 +9777,20 @@
       <c r="I80" s="4">
         <v>0</v>
       </c>
-      <c r="J80" s="4">
-        <v>2</v>
-      </c>
-      <c r="K80" s="11">
-        <v>120</v>
-      </c>
-      <c r="L80" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="J80" s="12">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>240</v>
+      </c>
+      <c r="L80">
+        <v>240</v>
+      </c>
+      <c r="O80">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -9161,17 +9819,20 @@
       <c r="I81" s="4">
         <v>0</v>
       </c>
-      <c r="J81" s="4">
-        <v>2</v>
-      </c>
-      <c r="K81" s="11">
-        <v>120</v>
-      </c>
-      <c r="L81" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="J81" s="12">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>240</v>
+      </c>
+      <c r="L81">
+        <v>240</v>
+      </c>
+      <c r="O81">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="4">
         <f>A81+1</f>
         <v>79</v>
@@ -9200,17 +9861,20 @@
       <c r="I82" s="4">
         <v>0</v>
       </c>
-      <c r="J82" s="4">
-        <v>1</v>
-      </c>
-      <c r="K82" s="11">
-        <v>35</v>
-      </c>
-      <c r="L82" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="J82" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>90</v>
+      </c>
+      <c r="O82">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -9239,17 +9903,20 @@
       <c r="I83" s="4">
         <v>0</v>
       </c>
-      <c r="J83" s="4">
-        <v>1</v>
-      </c>
-      <c r="K83" s="11">
-        <v>35</v>
-      </c>
-      <c r="L83" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="J83" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>90</v>
+      </c>
+      <c r="O83">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -9278,17 +9945,20 @@
       <c r="I84" s="4">
         <v>0</v>
       </c>
-      <c r="J84" s="4">
-        <v>1</v>
-      </c>
-      <c r="K84" s="11">
-        <v>35</v>
-      </c>
-      <c r="L84" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="J84" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>90</v>
+      </c>
+      <c r="O84">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -9317,17 +9987,20 @@
       <c r="I85" s="4">
         <v>0</v>
       </c>
-      <c r="J85" s="4">
-        <v>1</v>
-      </c>
-      <c r="K85" s="11">
-        <v>35</v>
-      </c>
-      <c r="L85" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="J85" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>90</v>
+      </c>
+      <c r="O85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -9356,17 +10029,20 @@
       <c r="I86" s="4">
         <v>0</v>
       </c>
-      <c r="J86" s="4">
-        <v>1</v>
-      </c>
-      <c r="K86" s="11">
-        <v>35</v>
-      </c>
-      <c r="L86" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="J86" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>90</v>
+      </c>
+      <c r="O86">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="4">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -9395,17 +10071,20 @@
       <c r="I87" s="4">
         <v>0</v>
       </c>
-      <c r="J87" s="4">
-        <v>1</v>
-      </c>
-      <c r="K87" s="11">
-        <v>35</v>
-      </c>
-      <c r="L87" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="J87" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>90</v>
+      </c>
+      <c r="O87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="4">
         <f>A87+1</f>
         <v>85</v>
@@ -9434,17 +10113,20 @@
       <c r="I88" s="4">
         <v>0</v>
       </c>
-      <c r="J88" s="4">
-        <v>1</v>
-      </c>
-      <c r="K88" s="11">
-        <v>35</v>
-      </c>
-      <c r="L88" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="J88" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>90</v>
+      </c>
+      <c r="O88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="4">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -9473,17 +10155,20 @@
       <c r="I89" s="4">
         <v>0</v>
       </c>
-      <c r="J89" s="4">
-        <v>1</v>
-      </c>
-      <c r="K89" s="11">
-        <v>35</v>
-      </c>
-      <c r="L89" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="J89" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>90</v>
+      </c>
+      <c r="O89">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="4">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -9512,17 +10197,20 @@
       <c r="I90" s="4">
         <v>0</v>
       </c>
-      <c r="J90" s="4">
-        <v>1</v>
-      </c>
-      <c r="K90" s="11">
-        <v>35</v>
-      </c>
-      <c r="L90" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="J90" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>90</v>
+      </c>
+      <c r="O90">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="4">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -9551,17 +10239,20 @@
       <c r="I91" s="4">
         <v>0</v>
       </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" s="11">
-        <v>35</v>
-      </c>
-      <c r="L91" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="J91" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>90</v>
+      </c>
+      <c r="O91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="4">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -9590,17 +10281,20 @@
       <c r="I92" s="4">
         <v>0</v>
       </c>
-      <c r="J92" s="4">
-        <v>1</v>
-      </c>
-      <c r="K92" s="11">
-        <v>35</v>
-      </c>
-      <c r="L92" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="J92" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
@@ -9629,17 +10323,20 @@
       <c r="I93" s="4">
         <v>0</v>
       </c>
-      <c r="J93" s="4">
-        <v>1</v>
-      </c>
-      <c r="K93" s="11">
-        <v>35</v>
-      </c>
-      <c r="L93" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="J93" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>90</v>
+      </c>
+      <c r="O93">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="4">
         <f t="shared" ref="A94" si="1">A93+1</f>
         <v>91</v>
@@ -9668,17 +10365,20 @@
       <c r="I94" s="5">
         <v>56</v>
       </c>
-      <c r="J94" s="4">
-        <v>1</v>
-      </c>
-      <c r="K94" s="11">
-        <v>35</v>
-      </c>
-      <c r="L94" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="J94" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>90</v>
+      </c>
+      <c r="O94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="4">
         <f>A94+1</f>
         <v>92</v>
@@ -9707,17 +10407,20 @@
       <c r="I95" s="5">
         <v>57</v>
       </c>
-      <c r="J95" s="4">
-        <v>1</v>
-      </c>
-      <c r="K95" s="11">
-        <v>35</v>
-      </c>
-      <c r="L95" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="J95" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>90</v>
+      </c>
+      <c r="O95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="4">
         <f t="shared" ref="A96:A116" si="2">A95+1</f>
         <v>93</v>
@@ -9746,17 +10449,20 @@
       <c r="I96" s="5">
         <v>58</v>
       </c>
-      <c r="J96" s="4">
-        <v>1</v>
-      </c>
-      <c r="K96" s="11">
-        <v>35</v>
-      </c>
-      <c r="L96" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="J96" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>90</v>
+      </c>
+      <c r="O96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="4">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -9785,17 +10491,20 @@
       <c r="I97" s="5">
         <v>59</v>
       </c>
-      <c r="J97" s="4">
-        <v>1</v>
-      </c>
-      <c r="K97" s="11">
-        <v>35</v>
-      </c>
-      <c r="L97" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="J97" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>90</v>
+      </c>
+      <c r="O97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="4">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -9824,17 +10533,20 @@
       <c r="I98" s="5">
         <v>60</v>
       </c>
-      <c r="J98" s="4">
-        <v>1</v>
-      </c>
-      <c r="K98" s="11">
-        <v>35</v>
-      </c>
-      <c r="L98" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="J98" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>90</v>
+      </c>
+      <c r="O98">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -9863,17 +10575,20 @@
       <c r="I99" s="5">
         <v>61</v>
       </c>
-      <c r="J99" s="4">
-        <v>1</v>
-      </c>
-      <c r="K99" s="11">
-        <v>35</v>
-      </c>
-      <c r="L99" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="J99" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>90</v>
+      </c>
+      <c r="O99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="4">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -9902,17 +10617,20 @@
       <c r="I100" s="5">
         <v>0</v>
       </c>
-      <c r="J100" s="4">
-        <v>2</v>
-      </c>
-      <c r="K100" s="11">
-        <v>120</v>
-      </c>
-      <c r="L100" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="J100" s="12">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>240</v>
+      </c>
+      <c r="L100">
+        <v>240</v>
+      </c>
+      <c r="O100">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="4">
         <f>A100+1</f>
         <v>98</v>
@@ -9941,17 +10659,20 @@
       <c r="I101" s="5">
         <v>0</v>
       </c>
-      <c r="J101" s="4">
-        <v>2</v>
-      </c>
-      <c r="K101" s="11">
-        <v>120</v>
-      </c>
-      <c r="L101" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>240</v>
+      </c>
+      <c r="L101">
+        <v>240</v>
+      </c>
+      <c r="O101">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="4">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -9980,17 +10701,20 @@
       <c r="I102" s="5">
         <v>0</v>
       </c>
-      <c r="J102" s="4">
-        <v>2</v>
-      </c>
-      <c r="K102" s="11">
-        <v>120</v>
-      </c>
-      <c r="L102" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="J102" s="12">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>240</v>
+      </c>
+      <c r="L102">
+        <v>240</v>
+      </c>
+      <c r="O102">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -10019,17 +10743,20 @@
       <c r="I103" s="5">
         <v>0</v>
       </c>
-      <c r="J103" s="4">
-        <v>2</v>
-      </c>
-      <c r="K103" s="11">
-        <v>120</v>
-      </c>
-      <c r="L103" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="J103" s="12">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>240</v>
+      </c>
+      <c r="L103">
+        <v>240</v>
+      </c>
+      <c r="O103">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="4">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -10058,17 +10785,20 @@
       <c r="I104" s="6">
         <v>0</v>
       </c>
-      <c r="J104" s="4">
-        <v>2</v>
-      </c>
-      <c r="K104" s="11">
-        <v>120</v>
-      </c>
-      <c r="L104" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="J104" s="12">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>240</v>
+      </c>
+      <c r="L104">
+        <v>240</v>
+      </c>
+      <c r="O104">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="4">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -10097,17 +10827,20 @@
       <c r="I105" s="6">
         <v>0</v>
       </c>
-      <c r="J105" s="4">
-        <v>2</v>
-      </c>
-      <c r="K105" s="11">
-        <v>120</v>
-      </c>
-      <c r="L105" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="J105" s="12">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>240</v>
+      </c>
+      <c r="L105">
+        <v>240</v>
+      </c>
+      <c r="O105">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="4">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -10136,17 +10869,20 @@
       <c r="I106" s="6">
         <v>0</v>
       </c>
-      <c r="J106" s="4">
-        <v>2</v>
-      </c>
-      <c r="K106" s="11">
-        <v>120</v>
-      </c>
-      <c r="L106" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="J106" s="12">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>240</v>
+      </c>
+      <c r="L106">
+        <v>240</v>
+      </c>
+      <c r="O106">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="4">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -10175,17 +10911,20 @@
       <c r="I107" s="6">
         <v>0</v>
       </c>
-      <c r="J107" s="4">
-        <v>2</v>
-      </c>
-      <c r="K107" s="11">
-        <v>120</v>
-      </c>
-      <c r="L107" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="J107" s="12">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>240</v>
+      </c>
+      <c r="L107">
+        <v>240</v>
+      </c>
+      <c r="O107">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="4">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -10214,17 +10953,20 @@
       <c r="I108" s="6">
         <v>0</v>
       </c>
-      <c r="J108" s="4">
-        <v>2</v>
-      </c>
-      <c r="K108" s="11">
-        <v>120</v>
-      </c>
-      <c r="L108" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="J108" s="12">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>240</v>
+      </c>
+      <c r="L108">
+        <v>240</v>
+      </c>
+      <c r="O108">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="4">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -10253,17 +10995,20 @@
       <c r="I109" s="6">
         <v>0</v>
       </c>
-      <c r="J109" s="4">
-        <v>2</v>
-      </c>
-      <c r="K109" s="11">
-        <v>120</v>
-      </c>
-      <c r="L109" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="J109" s="12">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>240</v>
+      </c>
+      <c r="L109">
+        <v>240</v>
+      </c>
+      <c r="O109">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="4">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -10292,17 +11037,20 @@
       <c r="I110" s="6">
         <v>0</v>
       </c>
-      <c r="J110" s="4">
-        <v>2</v>
-      </c>
-      <c r="K110" s="11">
-        <v>120</v>
-      </c>
-      <c r="L110" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="J110" s="12">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>240</v>
+      </c>
+      <c r="L110">
+        <v>240</v>
+      </c>
+      <c r="O110">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="4">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -10331,17 +11079,20 @@
       <c r="I111" s="6">
         <v>0</v>
       </c>
-      <c r="J111" s="4">
-        <v>2</v>
-      </c>
-      <c r="K111" s="11">
-        <v>120</v>
-      </c>
-      <c r="L111" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="J111" s="12">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>240</v>
+      </c>
+      <c r="L111">
+        <v>240</v>
+      </c>
+      <c r="O111">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="4">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -10370,17 +11121,20 @@
       <c r="I112" s="6">
         <v>0</v>
       </c>
-      <c r="J112" s="4">
-        <v>2</v>
-      </c>
-      <c r="K112" s="11">
-        <v>120</v>
-      </c>
-      <c r="L112" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="J112" s="12">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>240</v>
+      </c>
+      <c r="L112">
+        <v>240</v>
+      </c>
+      <c r="O112">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="4">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -10409,17 +11163,20 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="J113" s="4">
-        <v>2</v>
-      </c>
-      <c r="K113" s="11">
-        <v>120</v>
-      </c>
-      <c r="L113" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="J113" s="12">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>240</v>
+      </c>
+      <c r="L113">
+        <v>240</v>
+      </c>
+      <c r="O113">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="4">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -10448,17 +11205,20 @@
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="J114" s="4">
-        <v>2</v>
-      </c>
-      <c r="K114" s="11">
-        <v>120</v>
-      </c>
-      <c r="L114" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="J114" s="12">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>240</v>
+      </c>
+      <c r="L114">
+        <v>240</v>
+      </c>
+      <c r="O114">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -10487,17 +11247,20 @@
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="J115" s="4">
-        <v>2</v>
-      </c>
-      <c r="K115" s="11">
-        <v>120</v>
-      </c>
-      <c r="L115" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="J115" s="12">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>240</v>
+      </c>
+      <c r="L115">
+        <v>240</v>
+      </c>
+      <c r="O115">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="4">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -10526,17 +11289,20 @@
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="J116" s="4">
-        <v>2</v>
-      </c>
-      <c r="K116" s="11">
-        <v>120</v>
-      </c>
-      <c r="L116" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="J116" s="12">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>240</v>
+      </c>
+      <c r="L116">
+        <v>240</v>
+      </c>
+      <c r="O116">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="4">
         <f>A116+1</f>
         <v>114</v>
@@ -10565,17 +11331,20 @@
       <c r="I117" s="4">
         <v>0</v>
       </c>
-      <c r="J117" s="4">
-        <v>1</v>
-      </c>
-      <c r="K117" s="11">
-        <v>35</v>
-      </c>
-      <c r="L117" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="J117" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K117">
+        <v>90</v>
+      </c>
+      <c r="L117">
+        <v>90</v>
+      </c>
+      <c r="O117">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="4">
         <f t="shared" ref="A118:A129" si="3">A117+1</f>
         <v>115</v>
@@ -10604,17 +11373,20 @@
       <c r="I118" s="4">
         <v>0</v>
       </c>
-      <c r="J118" s="4">
-        <v>1</v>
-      </c>
-      <c r="K118" s="11">
-        <v>35</v>
-      </c>
-      <c r="L118" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="J118" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K118">
+        <v>90</v>
+      </c>
+      <c r="L118">
+        <v>90</v>
+      </c>
+      <c r="O118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -10643,17 +11415,20 @@
       <c r="I119" s="4">
         <v>0</v>
       </c>
-      <c r="J119" s="4">
-        <v>1</v>
-      </c>
-      <c r="K119" s="11">
-        <v>35</v>
-      </c>
-      <c r="L119" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="J119" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K119">
+        <v>90</v>
+      </c>
+      <c r="L119">
+        <v>90</v>
+      </c>
+      <c r="O119">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -10682,17 +11457,20 @@
       <c r="I120" s="4">
         <v>0</v>
       </c>
-      <c r="J120" s="4">
-        <v>1</v>
-      </c>
-      <c r="K120" s="11">
-        <v>35</v>
-      </c>
-      <c r="L120" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="J120" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K120">
+        <v>90</v>
+      </c>
+      <c r="L120">
+        <v>90</v>
+      </c>
+      <c r="O120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -10721,17 +11499,20 @@
       <c r="I121" s="4">
         <v>0</v>
       </c>
-      <c r="J121" s="4">
-        <v>1</v>
-      </c>
-      <c r="K121" s="11">
-        <v>35</v>
-      </c>
-      <c r="L121" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="J121" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K121">
+        <v>90</v>
+      </c>
+      <c r="L121">
+        <v>90</v>
+      </c>
+      <c r="O121">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -10760,17 +11541,20 @@
       <c r="I122" s="4">
         <v>0</v>
       </c>
-      <c r="J122" s="4">
-        <v>1</v>
-      </c>
-      <c r="K122" s="11">
-        <v>35</v>
-      </c>
-      <c r="L122" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="J122" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K122">
+        <v>90</v>
+      </c>
+      <c r="L122">
+        <v>90</v>
+      </c>
+      <c r="O122">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="4">
         <f>A122+1</f>
         <v>120</v>
@@ -10799,17 +11583,20 @@
       <c r="I123" s="4">
         <v>0</v>
       </c>
-      <c r="J123" s="4">
-        <v>1</v>
-      </c>
-      <c r="K123" s="11">
-        <v>35</v>
-      </c>
-      <c r="L123" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="J123" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K123">
+        <v>90</v>
+      </c>
+      <c r="L123">
+        <v>90</v>
+      </c>
+      <c r="O123">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -10838,17 +11625,20 @@
       <c r="I124" s="4">
         <v>0</v>
       </c>
-      <c r="J124" s="4">
-        <v>1</v>
-      </c>
-      <c r="K124" s="11">
-        <v>35</v>
-      </c>
-      <c r="L124" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="J124" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K124">
+        <v>90</v>
+      </c>
+      <c r="L124">
+        <v>90</v>
+      </c>
+      <c r="O124">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -10877,17 +11667,20 @@
       <c r="I125" s="4">
         <v>0</v>
       </c>
-      <c r="J125" s="4">
-        <v>1</v>
-      </c>
-      <c r="K125" s="11">
-        <v>35</v>
-      </c>
-      <c r="L125" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="J125" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K125">
+        <v>90</v>
+      </c>
+      <c r="L125">
+        <v>90</v>
+      </c>
+      <c r="O125">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -10916,17 +11709,20 @@
       <c r="I126" s="4">
         <v>0</v>
       </c>
-      <c r="J126" s="4">
-        <v>1</v>
-      </c>
-      <c r="K126" s="11">
-        <v>35</v>
-      </c>
-      <c r="L126" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="J126" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K126">
+        <v>90</v>
+      </c>
+      <c r="L126">
+        <v>90</v>
+      </c>
+      <c r="O126">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -10955,17 +11751,20 @@
       <c r="I127" s="7">
         <v>0</v>
       </c>
-      <c r="J127" s="4">
-        <v>1</v>
-      </c>
-      <c r="K127" s="11">
-        <v>35</v>
-      </c>
-      <c r="L127" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="J127" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K127">
+        <v>90</v>
+      </c>
+      <c r="L127">
+        <v>90</v>
+      </c>
+      <c r="O127">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -10994,17 +11793,20 @@
       <c r="I128" s="5">
         <v>97</v>
       </c>
-      <c r="J128" s="4">
-        <v>1</v>
-      </c>
-      <c r="K128" s="11">
-        <v>35</v>
-      </c>
-      <c r="L128" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="J128" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K128">
+        <v>90</v>
+      </c>
+      <c r="L128">
+        <v>90</v>
+      </c>
+      <c r="O128">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -11033,17 +11835,20 @@
       <c r="I129" s="5">
         <v>98</v>
       </c>
-      <c r="J129" s="4">
-        <v>1</v>
-      </c>
-      <c r="K129" s="11">
-        <v>35</v>
-      </c>
-      <c r="L129" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="J129" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K129">
+        <v>90</v>
+      </c>
+      <c r="L129">
+        <v>90</v>
+      </c>
+      <c r="O129">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="4">
         <f>A129+1</f>
         <v>127</v>
@@ -11072,17 +11877,20 @@
       <c r="I130" s="5">
         <v>99</v>
       </c>
-      <c r="J130" s="4">
-        <v>1</v>
-      </c>
-      <c r="K130" s="11">
-        <v>35</v>
-      </c>
-      <c r="L130" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="J130" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K130">
+        <v>90</v>
+      </c>
+      <c r="L130">
+        <v>90</v>
+      </c>
+      <c r="O130">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="4">
         <f t="shared" ref="A131:A142" si="4">A130+1</f>
         <v>128</v>
@@ -11111,17 +11919,20 @@
       <c r="I131" s="5">
         <v>100</v>
       </c>
-      <c r="J131" s="4">
-        <v>1</v>
-      </c>
-      <c r="K131" s="11">
-        <v>35</v>
-      </c>
-      <c r="L131" s="11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="J131" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K131">
+        <v>90</v>
+      </c>
+      <c r="L131">
+        <v>90</v>
+      </c>
+      <c r="O131">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="4">
         <f t="shared" si="4"/>
         <v>129</v>
@@ -11150,17 +11961,20 @@
       <c r="I132" s="4">
         <v>0</v>
       </c>
-      <c r="J132" s="4">
-        <v>2</v>
-      </c>
-      <c r="K132" s="11">
-        <v>120</v>
-      </c>
-      <c r="L132" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="J132" s="12">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>240</v>
+      </c>
+      <c r="L132">
+        <v>240</v>
+      </c>
+      <c r="O132">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="4">
         <f t="shared" si="4"/>
         <v>130</v>
@@ -11189,17 +12003,20 @@
       <c r="I133" s="4">
         <v>0</v>
       </c>
-      <c r="J133" s="4">
-        <v>2</v>
-      </c>
-      <c r="K133" s="11">
-        <v>120</v>
-      </c>
-      <c r="L133" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="J133" s="12">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>240</v>
+      </c>
+      <c r="L133">
+        <v>240</v>
+      </c>
+      <c r="O133">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="4">
         <f t="shared" si="4"/>
         <v>131</v>
@@ -11228,17 +12045,20 @@
       <c r="I134" s="4">
         <v>0</v>
       </c>
-      <c r="J134" s="4">
-        <v>2</v>
-      </c>
-      <c r="K134" s="11">
-        <v>120</v>
-      </c>
-      <c r="L134" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="J134" s="12">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>240</v>
+      </c>
+      <c r="L134">
+        <v>240</v>
+      </c>
+      <c r="O134">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="4">
         <f t="shared" si="4"/>
         <v>132</v>
@@ -11267,17 +12087,20 @@
       <c r="I135" s="4">
         <v>0</v>
       </c>
-      <c r="J135" s="4">
-        <v>2</v>
-      </c>
-      <c r="K135" s="11">
-        <v>120</v>
-      </c>
-      <c r="L135" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="J135" s="12">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>240</v>
+      </c>
+      <c r="L135">
+        <v>240</v>
+      </c>
+      <c r="O135">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="4">
         <f>A135+1</f>
         <v>133</v>
@@ -11306,17 +12129,20 @@
       <c r="I136" s="4">
         <v>0</v>
       </c>
-      <c r="J136" s="4">
-        <v>2</v>
-      </c>
-      <c r="K136" s="11">
-        <v>120</v>
-      </c>
-      <c r="L136" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="J136" s="12">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>240</v>
+      </c>
+      <c r="L136">
+        <v>240</v>
+      </c>
+      <c r="O136">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="4">
         <f t="shared" si="4"/>
         <v>134</v>
@@ -11345,17 +12171,20 @@
       <c r="I137" s="4">
         <v>0</v>
       </c>
-      <c r="J137" s="4">
-        <v>2</v>
-      </c>
-      <c r="K137" s="11">
-        <v>120</v>
-      </c>
-      <c r="L137" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="J137" s="12">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>240</v>
+      </c>
+      <c r="L137">
+        <v>240</v>
+      </c>
+      <c r="O137">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="4">
         <f t="shared" si="4"/>
         <v>135</v>
@@ -11384,17 +12213,20 @@
       <c r="I138" s="4">
         <v>0</v>
       </c>
-      <c r="J138" s="4">
-        <v>2</v>
-      </c>
-      <c r="K138" s="11">
-        <v>120</v>
-      </c>
-      <c r="L138" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="J138" s="12">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>240</v>
+      </c>
+      <c r="L138">
+        <v>240</v>
+      </c>
+      <c r="O138">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="4">
         <f t="shared" si="4"/>
         <v>136</v>
@@ -11423,17 +12255,20 @@
       <c r="I139" s="4">
         <v>0</v>
       </c>
-      <c r="J139" s="4">
-        <v>2</v>
-      </c>
-      <c r="K139" s="11">
-        <v>120</v>
-      </c>
-      <c r="L139" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="J139" s="12">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>240</v>
+      </c>
+      <c r="L139">
+        <v>240</v>
+      </c>
+      <c r="O139">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="4">
         <f t="shared" si="4"/>
         <v>137</v>
@@ -11462,17 +12297,20 @@
       <c r="I140" s="4">
         <v>0</v>
       </c>
-      <c r="J140" s="4">
-        <v>2</v>
-      </c>
-      <c r="K140" s="11">
-        <v>120</v>
-      </c>
-      <c r="L140" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="J140" s="12">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>240</v>
+      </c>
+      <c r="L140">
+        <v>240</v>
+      </c>
+      <c r="O140">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="4">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -11501,17 +12339,20 @@
       <c r="I141" s="4">
         <v>0</v>
       </c>
-      <c r="J141" s="4">
-        <v>2</v>
-      </c>
-      <c r="K141" s="11">
-        <v>120</v>
-      </c>
-      <c r="L141" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="J141" s="12">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>240</v>
+      </c>
+      <c r="L141">
+        <v>240</v>
+      </c>
+      <c r="O141">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="4">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -11540,14 +12381,17 @@
       <c r="I142" s="4">
         <v>0</v>
       </c>
-      <c r="J142" s="4">
-        <v>2</v>
-      </c>
-      <c r="K142" s="11">
-        <v>120</v>
-      </c>
-      <c r="L142" s="11">
-        <v>120</v>
+      <c r="J142" s="12">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>240</v>
+      </c>
+      <c r="L142">
+        <v>240</v>
+      </c>
+      <c r="O142">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
